--- a/data/taxonomy.xlsx
+++ b/data/taxonomy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="taxonomy" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">datasets!$A$1:$D$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">taxonomy!$A$1:$F$184</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="392">
   <si>
     <t>Education</t>
   </si>
@@ -1177,13 +1178,43 @@
   </si>
   <si>
     <t>T0</t>
+  </si>
+  <si>
+    <t>Admissions, grades, opportunities, exclusions and student progress</t>
+  </si>
+  <si>
+    <t>Employment, working conditions, pay, workplace discrimination, business support, benefits</t>
+  </si>
+  <si>
+    <t>Ownership, renting, social housing, homelessness, living conditions, poverty</t>
+  </si>
+  <si>
+    <t>Physical and mental health, preventing illness, quality of care, access to treatment</t>
+  </si>
+  <si>
+    <t>Criminal justice system, crimes, police, customs, defence</t>
+  </si>
+  <si>
+    <t>Culture, media, communities, environment, civic action, wellbeing</t>
+  </si>
+  <si>
+    <t>Subtitle</t>
+  </si>
+  <si>
+    <t>Compare how housing and living standards differ across people from different backgrounds, depending on their race, location and other factors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affordable housing is social rented, affordable rented and intermediate housing, provided to eligible households whose needs are not met by the market. Eligibility is determined with regard to local incomes and local house prices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local councils and housing associations provide affordable housing – often to people on a low income or who need extra support. Each council and housing association has its own rules based on housing need. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1223,6 +1254,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1344,7 +1380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1386,6 +1422,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1663,24 +1703,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F239"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.83203125" style="23" customWidth="1"/>
     <col min="2" max="2" width="53.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="22" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="32.1640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="15" customWidth="1"/>
+    <col min="5" max="6" width="8.6640625" style="24" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>376</v>
       </c>
@@ -1699,8 +1739,11 @@
       <c r="F1" s="18" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>378</v>
       </c>
@@ -1714,14 +1757,13 @@
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="str">
-        <f>IF(F3&lt;&gt;"",F3,IF(E3&lt;&gt;"",E3,D3))</f>
+        <f t="shared" ref="A3:A34" si="0">IF(F3&lt;&gt;"",F3,IF(E3&lt;&gt;"",E3,D3))</f>
         <v>Education</v>
       </c>
-      <c r="B3" s="11" t="str">
-        <f>"This is a description of the " &amp; A3 &amp; " page. Source to be decided."</f>
-        <v>This is a description of the Education page. Source to be decided.</v>
+      <c r="B3" s="25" t="s">
+        <v>382</v>
       </c>
       <c r="C3" s="11" t="str">
         <f>IF(F3&lt;&gt;"","T3",IF(E3&lt;&gt;"","T2","T1"))</f>
@@ -1732,18 +1774,21 @@
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="str">
-        <f>IF(F4&lt;&gt;"",F4,IF(E4&lt;&gt;"",E4,D4))</f>
+        <f t="shared" si="0"/>
         <v>Attainment</v>
       </c>
       <c r="B4" s="11" t="str">
-        <f>"This is a description of the " &amp; A4 &amp; " page. Source to be decided."</f>
+        <f t="shared" ref="B4:B34" si="1">"This is a description of the " &amp; A4 &amp; " page. Source to be decided."</f>
         <v>This is a description of the Attainment page. Source to be decided.</v>
       </c>
       <c r="C4" s="11" t="str">
-        <f t="shared" ref="C4:C67" si="0">IF(F4&lt;&gt;"","T3",IF(E4&lt;&gt;"","T2","T1"))</f>
+        <f t="shared" ref="C4:C67" si="2">IF(F4&lt;&gt;"","T3",IF(E4&lt;&gt;"","T2","T1"))</f>
         <v>T2</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -1753,18 +1798,19 @@
         <v>3</v>
       </c>
       <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="str">
-        <f>IF(F5&lt;&gt;"",F5,IF(E5&lt;&gt;"",E5,D5))</f>
+        <f t="shared" si="0"/>
         <v>Early years</v>
       </c>
       <c r="B5" s="11" t="str">
-        <f>"This is a description of the " &amp; A5 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Early years page. Source to be decided.</v>
       </c>
       <c r="C5" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -1776,18 +1822,19 @@
       <c r="F5" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="str">
-        <f>IF(F6&lt;&gt;"",F6,IF(E6&lt;&gt;"",E6,D6))</f>
+        <f t="shared" si="0"/>
         <v>National assessments</v>
       </c>
       <c r="B6" s="11" t="str">
-        <f>"This is a description of the " &amp; A6 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the National assessments page. Source to be decided.</v>
       </c>
       <c r="C6" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D6" s="14" t="s">
@@ -1799,18 +1846,19 @@
       <c r="F6" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="str">
-        <f>IF(F7&lt;&gt;"",F7,IF(E7&lt;&gt;"",E7,D7))</f>
+        <f t="shared" si="0"/>
         <v>Progress</v>
       </c>
       <c r="B7" s="11" t="str">
-        <f>"This is a description of the " &amp; A7 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Progress page. Source to be decided.</v>
       </c>
       <c r="C7" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -1822,18 +1870,19 @@
       <c r="F7" s="18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="str">
-        <f>IF(F8&lt;&gt;"",F8,IF(E8&lt;&gt;"",E8,D8))</f>
+        <f t="shared" si="0"/>
         <v>Positive outcomes</v>
       </c>
       <c r="B8" s="11" t="str">
-        <f>"This is a description of the " &amp; A8 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Positive outcomes page. Source to be decided.</v>
       </c>
       <c r="C8" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D8" s="14" t="s">
@@ -1845,18 +1894,19 @@
       <c r="F8" s="18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="str">
-        <f>IF(F9&lt;&gt;"",F9,IF(E9&lt;&gt;"",E9,D9))</f>
+        <f t="shared" si="0"/>
         <v>Admissions, choice &amp; quality</v>
       </c>
       <c r="B9" s="11" t="str">
-        <f>"This is a description of the " &amp; A9 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Admissions, choice &amp; quality page. Source to be decided.</v>
       </c>
       <c r="C9" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -1867,17 +1917,17 @@
       </c>
       <c r="F9" s="18"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="str">
-        <f>IF(F10&lt;&gt;"",F10,IF(E10&lt;&gt;"",E10,D10))</f>
+        <f t="shared" si="0"/>
         <v>School admissions</v>
       </c>
       <c r="B10" s="11" t="str">
-        <f>"This is a description of the " &amp; A10 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the School admissions page. Source to be decided.</v>
       </c>
       <c r="C10" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -1890,17 +1940,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="str">
-        <f>IF(F11&lt;&gt;"",F11,IF(E11&lt;&gt;"",E11,D11))</f>
+        <f t="shared" si="0"/>
         <v>School quality</v>
       </c>
       <c r="B11" s="11" t="str">
-        <f>"This is a description of the " &amp; A11 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the School quality page. Source to be decided.</v>
       </c>
       <c r="C11" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -1913,17 +1963,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="str">
-        <f>IF(F12&lt;&gt;"",F12,IF(E12&lt;&gt;"",E12,D12))</f>
+        <f t="shared" si="0"/>
         <v>School choice</v>
       </c>
       <c r="B12" s="11" t="str">
-        <f>"This is a description of the " &amp; A12 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the School choice page. Source to be decided.</v>
       </c>
       <c r="C12" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -1936,17 +1986,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="str">
-        <f>IF(F13&lt;&gt;"",F13,IF(E13&lt;&gt;"",E13,D13))</f>
+        <f t="shared" si="0"/>
         <v>Higher Education &amp; Adult Education</v>
       </c>
       <c r="B13" s="11" t="str">
-        <f>"This is a description of the " &amp; A13 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Higher Education &amp; Adult Education page. Source to be decided.</v>
       </c>
       <c r="C13" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -1957,17 +2007,17 @@
       </c>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="str">
-        <f>IF(F14&lt;&gt;"",F14,IF(E14&lt;&gt;"",E14,D14))</f>
+        <f t="shared" si="0"/>
         <v>NEETS</v>
       </c>
       <c r="B14" s="11" t="str">
-        <f>"This is a description of the " &amp; A14 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the NEETS page. Source to be decided.</v>
       </c>
       <c r="C14" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1980,17 +2030,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="str">
-        <f>IF(F15&lt;&gt;"",F15,IF(E15&lt;&gt;"",E15,D15))</f>
+        <f t="shared" si="0"/>
         <v>Participation in Adult education</v>
       </c>
       <c r="B15" s="11" t="str">
-        <f>"This is a description of the " &amp; A15 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Participation in Adult education page. Source to be decided.</v>
       </c>
       <c r="C15" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -2003,17 +2053,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="str">
-        <f>IF(F16&lt;&gt;"",F16,IF(E16&lt;&gt;"",E16,D16))</f>
+        <f t="shared" si="0"/>
         <v>Higher Education applications</v>
       </c>
       <c r="B16" s="11" t="str">
-        <f>"This is a description of the " &amp; A16 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Higher Education applications page. Source to be decided.</v>
       </c>
       <c r="C16" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -2026,17 +2076,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="str">
-        <f>IF(F17&lt;&gt;"",F17,IF(E17&lt;&gt;"",E17,D17))</f>
+        <f t="shared" si="0"/>
         <v>Entry to Higher Education</v>
       </c>
       <c r="B17" s="11" t="str">
-        <f>"This is a description of the " &amp; A17 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Entry to Higher Education page. Source to be decided.</v>
       </c>
       <c r="C17" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D17" s="14" t="s">
@@ -2049,17 +2099,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="str">
-        <f>IF(F18&lt;&gt;"",F18,IF(E18&lt;&gt;"",E18,D18))</f>
+        <f t="shared" si="0"/>
         <v>Progress in higher education</v>
       </c>
       <c r="B18" s="11" t="str">
-        <f>"This is a description of the " &amp; A18 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Progress in higher education page. Source to be decided.</v>
       </c>
       <c r="C18" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D18" s="14" t="s">
@@ -2072,17 +2122,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="str">
-        <f>IF(F19&lt;&gt;"",F19,IF(E19&lt;&gt;"",E19,D19))</f>
+        <f t="shared" si="0"/>
         <v>Higher education attainment</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f>"This is a description of the " &amp; A19 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Higher education attainment page. Source to be decided.</v>
       </c>
       <c r="C19" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -2095,17 +2145,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="str">
-        <f>IF(F20&lt;&gt;"",F20,IF(E20&lt;&gt;"",E20,D20))</f>
+        <f t="shared" si="0"/>
         <v>Destinations after education</v>
       </c>
       <c r="B20" s="11" t="str">
-        <f>"This is a description of the " &amp; A20 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Destinations after education page. Source to be decided.</v>
       </c>
       <c r="C20" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D20" s="14" t="s">
@@ -2116,17 +2166,17 @@
       </c>
       <c r="F20" s="18"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="str">
-        <f>IF(F21&lt;&gt;"",F21,IF(E21&lt;&gt;"",E21,D21))</f>
+        <f t="shared" si="0"/>
         <v>Destinations after GCSE; A-Level; Uni</v>
       </c>
       <c r="B21" s="11" t="str">
-        <f>"This is a description of the " &amp; A21 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Destinations after GCSE; A-Level; Uni page. Source to be decided.</v>
       </c>
       <c r="C21" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -2139,17 +2189,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="str">
-        <f>IF(F22&lt;&gt;"",F22,IF(E22&lt;&gt;"",E22,D22))</f>
+        <f t="shared" si="0"/>
         <v>Graduate employment outcomes</v>
       </c>
       <c r="B22" s="11" t="str">
-        <f>"This is a description of the " &amp; A22 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Graduate employment outcomes page. Source to be decided.</v>
       </c>
       <c r="C22" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -2162,17 +2212,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="str">
-        <f>IF(F23&lt;&gt;"",F23,IF(E23&lt;&gt;"",E23,D23))</f>
+        <f t="shared" si="0"/>
         <v>Exclusions &amp; Pupil Absence</v>
       </c>
       <c r="B23" s="11" t="str">
-        <f>"This is a description of the " &amp; A23 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Exclusions &amp; Pupil Absence page. Source to be decided.</v>
       </c>
       <c r="C23" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -2183,17 +2233,17 @@
       </c>
       <c r="F23" s="18"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="str">
-        <f>IF(F24&lt;&gt;"",F24,IF(E24&lt;&gt;"",E24,D24))</f>
+        <f t="shared" si="0"/>
         <v>Permanent &amp; Fixed exclusions</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f>"This is a description of the " &amp; A24 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Permanent &amp; Fixed exclusions page. Source to be decided.</v>
       </c>
       <c r="C24" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -2206,17 +2256,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="str">
-        <f>IF(F25&lt;&gt;"",F25,IF(E25&lt;&gt;"",E25,D25))</f>
+        <f t="shared" si="0"/>
         <v>Pupil absence</v>
       </c>
       <c r="B25" s="11" t="str">
-        <f>"This is a description of the " &amp; A25 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Pupil absence page. Source to be decided.</v>
       </c>
       <c r="C25" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -2229,17 +2279,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="str">
-        <f>IF(F26&lt;&gt;"",F26,IF(E26&lt;&gt;"",E26,D26))</f>
+        <f t="shared" si="0"/>
         <v>Special Education Needs &amp; Vulnerable People</v>
       </c>
       <c r="B26" s="11" t="str">
-        <f>"This is a description of the " &amp; A26 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Special Education Needs &amp; Vulnerable People page. Source to be decided.</v>
       </c>
       <c r="C26" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -2250,17 +2300,17 @@
       </c>
       <c r="F26" s="18"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="str">
-        <f>IF(F27&lt;&gt;"",F27,IF(E27&lt;&gt;"",E27,D27))</f>
+        <f t="shared" si="0"/>
         <v>SEN &amp; EHC</v>
       </c>
       <c r="B27" s="11" t="str">
-        <f>"This is a description of the " &amp; A27 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the SEN &amp; EHC page. Source to be decided.</v>
       </c>
       <c r="C27" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -2273,17 +2323,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="str">
-        <f>IF(F28&lt;&gt;"",F28,IF(E28&lt;&gt;"",E28,D28))</f>
+        <f t="shared" si="0"/>
         <v>Education workforce</v>
       </c>
       <c r="B28" s="11" t="str">
-        <f>"This is a description of the " &amp; A28 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Education workforce page. Source to be decided.</v>
       </c>
       <c r="C28" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2294,17 +2344,17 @@
       </c>
       <c r="F28" s="18"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="str">
-        <f>IF(F29&lt;&gt;"",F29,IF(E29&lt;&gt;"",E29,D29))</f>
+        <f t="shared" si="0"/>
         <v>Workforce</v>
       </c>
       <c r="B29" s="11" t="str">
-        <f>"This is a description of the " &amp; A29 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Workforce page. Source to be decided.</v>
       </c>
       <c r="C29" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -2317,17 +2367,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="str">
-        <f>IF(F30&lt;&gt;"",F30,IF(E30&lt;&gt;"",E30,D30))</f>
+        <f t="shared" si="0"/>
         <v>Work</v>
       </c>
-      <c r="B30" s="11" t="str">
-        <f>"This is a description of the " &amp; A30 &amp; " page. Source to be decided."</f>
-        <v>This is a description of the Work page. Source to be decided.</v>
+      <c r="B30" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="C30" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T1</v>
       </c>
       <c r="D30" s="18" t="s">
@@ -2335,18 +2384,21 @@
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="str">
-        <f>IF(F31&lt;&gt;"",F31,IF(E31&lt;&gt;"",E31,D31))</f>
+        <f t="shared" si="0"/>
         <v>Employment</v>
       </c>
       <c r="B31" s="11" t="str">
-        <f>"This is a description of the " &amp; A31 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Employment page. Source to be decided.</v>
       </c>
       <c r="C31" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -2357,17 +2409,17 @@
       </c>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="str">
-        <f>IF(F32&lt;&gt;"",F32,IF(E32&lt;&gt;"",E32,D32))</f>
+        <f t="shared" si="0"/>
         <v>Participation in the labour market</v>
       </c>
       <c r="B32" s="11" t="str">
-        <f>"This is a description of the " &amp; A32 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Participation in the labour market page. Source to be decided.</v>
       </c>
       <c r="C32" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D32" s="18" t="s">
@@ -2380,17 +2432,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="str">
-        <f>IF(F33&lt;&gt;"",F33,IF(E33&lt;&gt;"",E33,D33))</f>
+        <f t="shared" si="0"/>
         <v>Graduate outcomes</v>
       </c>
       <c r="B33" s="11" t="str">
-        <f>"This is a description of the " &amp; A33 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Graduate outcomes page. Source to be decided.</v>
       </c>
       <c r="C33" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D33" s="18" t="s">
@@ -2403,17 +2455,17 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="str">
-        <f>IF(F34&lt;&gt;"",F34,IF(E34&lt;&gt;"",E34,D34))</f>
+        <f t="shared" si="0"/>
         <v>Reasons for inactivity</v>
       </c>
       <c r="B34" s="11" t="str">
-        <f>"This is a description of the " &amp; A34 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="1"/>
         <v>This is a description of the Reasons for inactivity page. Source to be decided.</v>
       </c>
       <c r="C34" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D34" s="18" t="s">
@@ -2426,17 +2478,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="str">
-        <f>IF(F35&lt;&gt;"",F35,IF(E35&lt;&gt;"",E35,D35))</f>
+        <f t="shared" ref="A35:A66" si="3">IF(F35&lt;&gt;"",F35,IF(E35&lt;&gt;"",E35,D35))</f>
         <v>Pay &amp; conditions</v>
       </c>
       <c r="B35" s="11" t="str">
-        <f>"This is a description of the " &amp; A35 &amp; " page. Source to be decided."</f>
+        <f t="shared" ref="B35:B66" si="4">"This is a description of the " &amp; A35 &amp; " page. Source to be decided."</f>
         <v>This is a description of the Pay &amp; conditions page. Source to be decided.</v>
       </c>
       <c r="C35" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D35" s="18" t="s">
@@ -2447,17 +2499,17 @@
       </c>
       <c r="F35" s="18"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="str">
-        <f>IF(F36&lt;&gt;"",F36,IF(E36&lt;&gt;"",E36,D36))</f>
+        <f t="shared" si="3"/>
         <v>Occupations</v>
       </c>
       <c r="B36" s="11" t="str">
-        <f>"This is a description of the " &amp; A36 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Occupations page. Source to be decided.</v>
       </c>
       <c r="C36" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D36" s="18" t="s">
@@ -2470,17 +2522,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="str">
-        <f>IF(F37&lt;&gt;"",F37,IF(E37&lt;&gt;"",E37,D37))</f>
+        <f t="shared" si="3"/>
         <v>Income</v>
       </c>
       <c r="B37" s="11" t="str">
-        <f>"This is a description of the " &amp; A37 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Income page. Source to be decided.</v>
       </c>
       <c r="C37" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -2493,17 +2545,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="str">
-        <f>IF(F38&lt;&gt;"",F38,IF(E38&lt;&gt;"",E38,D38))</f>
+        <f t="shared" si="3"/>
         <v>Low pay</v>
       </c>
       <c r="B38" s="11" t="str">
-        <f>"This is a description of the " &amp; A38 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Low pay page. Source to be decided.</v>
       </c>
       <c r="C38" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D38" s="18" t="s">
@@ -2516,17 +2568,17 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="str">
-        <f>IF(F39&lt;&gt;"",F39,IF(E39&lt;&gt;"",E39,D39))</f>
+        <f t="shared" si="3"/>
         <v>Temporary employment</v>
       </c>
       <c r="B39" s="11" t="str">
-        <f>"This is a description of the " &amp; A39 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Temporary employment page. Source to be decided.</v>
       </c>
       <c r="C39" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D39" s="18" t="s">
@@ -2539,17 +2591,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="str">
-        <f>IF(F40&lt;&gt;"",F40,IF(E40&lt;&gt;"",E40,D40))</f>
+        <f t="shared" si="3"/>
         <v>Zero Hours contracts</v>
       </c>
       <c r="B40" s="11" t="str">
-        <f>"This is a description of the " &amp; A40 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Zero Hours contracts page. Source to be decided.</v>
       </c>
       <c r="C40" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -2562,17 +2614,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="str">
-        <f>IF(F41&lt;&gt;"",F41,IF(E41&lt;&gt;"",E41,D41))</f>
+        <f t="shared" si="3"/>
         <v>Minimum wage</v>
       </c>
       <c r="B41" s="11" t="str">
-        <f>"This is a description of the " &amp; A41 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Minimum wage page. Source to be decided.</v>
       </c>
       <c r="C41" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D41" s="18" t="s">
@@ -2585,17 +2637,17 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="str">
-        <f>IF(F42&lt;&gt;"",F42,IF(E42&lt;&gt;"",E42,D42))</f>
+        <f t="shared" si="3"/>
         <v>Benefits</v>
       </c>
       <c r="B42" s="11" t="str">
-        <f>"This is a description of the " &amp; A42 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Benefits page. Source to be decided.</v>
       </c>
       <c r="C42" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D42" s="18" t="s">
@@ -2606,17 +2658,17 @@
       </c>
       <c r="F42" s="18"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="str">
-        <f>IF(F43&lt;&gt;"",F43,IF(E43&lt;&gt;"",E43,D43))</f>
+        <f t="shared" si="3"/>
         <v>Benefit claims</v>
       </c>
       <c r="B43" s="11" t="str">
-        <f>"This is a description of the " &amp; A43 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Benefit claims page. Source to be decided.</v>
       </c>
       <c r="C43" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D43" s="18" t="s">
@@ -2629,17 +2681,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="str">
-        <f>IF(F44&lt;&gt;"",F44,IF(E44&lt;&gt;"",E44,D44))</f>
+        <f t="shared" si="3"/>
         <v>Child maintenance</v>
       </c>
       <c r="B44" s="11" t="str">
-        <f>"This is a description of the " &amp; A44 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Child maintenance page. Source to be decided.</v>
       </c>
       <c r="C44" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D44" s="18" t="s">
@@ -2652,17 +2704,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="str">
-        <f>IF(F45&lt;&gt;"",F45,IF(E45&lt;&gt;"",E45,D45))</f>
+        <f t="shared" si="3"/>
         <v>Benefit fraud</v>
       </c>
       <c r="B45" s="11" t="str">
-        <f>"This is a description of the " &amp; A45 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Benefit fraud page. Source to be decided.</v>
       </c>
       <c r="C45" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D45" s="18" t="s">
@@ -2675,17 +2727,17 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="str">
-        <f>IF(F46&lt;&gt;"",F46,IF(E46&lt;&gt;"",E46,D46))</f>
+        <f t="shared" si="3"/>
         <v>Discrimination</v>
       </c>
       <c r="B46" s="11" t="str">
-        <f>"This is a description of the " &amp; A46 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Discrimination page. Source to be decided.</v>
       </c>
       <c r="C46" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -2696,17 +2748,17 @@
       </c>
       <c r="F46" s="18"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="str">
-        <f>IF(F47&lt;&gt;"",F47,IF(E47&lt;&gt;"",E47,D47))</f>
+        <f t="shared" si="3"/>
         <v>Discrimination at work</v>
       </c>
       <c r="B47" s="11" t="str">
-        <f>"This is a description of the " &amp; A47 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Discrimination at work page. Source to be decided.</v>
       </c>
       <c r="C47" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D47" s="18" t="s">
@@ -2719,17 +2771,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="str">
-        <f>IF(F48&lt;&gt;"",F48,IF(E48&lt;&gt;"",E48,D48))</f>
+        <f t="shared" si="3"/>
         <v>Employment tribunals</v>
       </c>
       <c r="B48" s="11" t="str">
-        <f>"This is a description of the " &amp; A48 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Employment tribunals page. Source to be decided.</v>
       </c>
       <c r="C48" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D48" s="18" t="s">
@@ -2742,17 +2794,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="str">
-        <f>IF(F49&lt;&gt;"",F49,IF(E49&lt;&gt;"",E49,D49))</f>
+        <f t="shared" si="3"/>
         <v>Government support</v>
       </c>
       <c r="B49" s="11" t="str">
-        <f>"This is a description of the " &amp; A49 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Government support page. Source to be decided.</v>
       </c>
       <c r="C49" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D49" s="18" t="s">
@@ -2763,17 +2815,17 @@
       </c>
       <c r="F49" s="18"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="str">
-        <f>IF(F50&lt;&gt;"",F50,IF(E50&lt;&gt;"",E50,D50))</f>
+        <f t="shared" si="3"/>
         <v>Start-ups'; small business owners; entrepreneurs</v>
       </c>
       <c r="B50" s="11" t="str">
-        <f>"This is a description of the " &amp; A50 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Start-ups'; small business owners; entrepreneurs page. Source to be decided.</v>
       </c>
       <c r="C50" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D50" s="18" t="s">
@@ -2786,17 +2838,17 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="str">
-        <f>IF(F51&lt;&gt;"",F51,IF(E51&lt;&gt;"",E51,D51))</f>
+        <f t="shared" si="3"/>
         <v>Start up loans</v>
       </c>
       <c r="B51" s="11" t="str">
-        <f>"This is a description of the " &amp; A51 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Start up loans page. Source to be decided.</v>
       </c>
       <c r="C51" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D51" s="18" t="s">
@@ -2809,17 +2861,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="str">
-        <f>IF(F52&lt;&gt;"",F52,IF(E52&lt;&gt;"",E52,D52))</f>
+        <f t="shared" si="3"/>
         <v>Customer satisfaction with frontline services</v>
       </c>
       <c r="B52" s="11" t="str">
-        <f>"This is a description of the " &amp; A52 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Customer satisfaction with frontline services page. Source to be decided.</v>
       </c>
       <c r="C52" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D52" s="18" t="s">
@@ -2832,17 +2884,17 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="str">
-        <f>IF(F53&lt;&gt;"",F53,IF(E53&lt;&gt;"",E53,D53))</f>
+        <f t="shared" si="3"/>
         <v>Representation</v>
       </c>
       <c r="B53" s="11" t="str">
-        <f>"This is a description of the " &amp; A53 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Representation page. Source to be decided.</v>
       </c>
       <c r="C53" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D53" s="18" t="s">
@@ -2853,17 +2905,17 @@
       </c>
       <c r="F53" s="18"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="str">
-        <f>IF(F54&lt;&gt;"",F54,IF(E54&lt;&gt;"",E54,D54))</f>
+        <f t="shared" si="3"/>
         <v>Diversity at work</v>
       </c>
       <c r="B54" s="11" t="str">
-        <f>"This is a description of the " &amp; A54 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Diversity at work page. Source to be decided.</v>
       </c>
       <c r="C54" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D54" s="18" t="s">
@@ -2876,17 +2928,16 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="str">
-        <f>IF(F55&lt;&gt;"",F55,IF(E55&lt;&gt;"",E55,D55))</f>
+        <f t="shared" si="3"/>
         <v>Housing &amp; Living standards</v>
       </c>
-      <c r="B55" s="11" t="str">
-        <f>"This is a description of the " &amp; A55 &amp; " page. Source to be decided."</f>
-        <v>This is a description of the Housing &amp; Living standards page. Source to be decided.</v>
+      <c r="B55" s="26" t="s">
+        <v>389</v>
       </c>
       <c r="C55" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T1</v>
       </c>
       <c r="D55" s="14" t="s">
@@ -2894,18 +2945,21 @@
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="25" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="str">
-        <f>IF(F56&lt;&gt;"",F56,IF(E56&lt;&gt;"",E56,D56))</f>
+        <f t="shared" si="3"/>
         <v>Home ownership</v>
       </c>
       <c r="B56" s="11" t="str">
-        <f>"This is a description of the " &amp; A56 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Home ownership page. Source to be decided.</v>
       </c>
       <c r="C56" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D56" s="14" t="s">
@@ -2916,17 +2970,17 @@
       </c>
       <c r="F56" s="18"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="str">
-        <f>IF(F57&lt;&gt;"",F57,IF(E57&lt;&gt;"",E57,D57))</f>
+        <f t="shared" si="3"/>
         <v>Access to home ownership</v>
       </c>
       <c r="B57" s="11" t="str">
-        <f>"This is a description of the " &amp; A57 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Access to home ownership page. Source to be decided.</v>
       </c>
       <c r="C57" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -2939,17 +2993,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="str">
-        <f>IF(F58&lt;&gt;"",F58,IF(E58&lt;&gt;"",E58,D58))</f>
+        <f t="shared" si="3"/>
         <v>Access to mortgages</v>
       </c>
       <c r="B58" s="11" t="str">
-        <f>"This is a description of the " &amp; A58 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Access to mortgages page. Source to be decided.</v>
       </c>
       <c r="C58" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D58" s="14" t="s">
@@ -2962,17 +3016,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="str">
-        <f>IF(F59&lt;&gt;"",F59,IF(E59&lt;&gt;"",E59,D59))</f>
+        <f t="shared" si="3"/>
         <v>Financial help from parents to buy home</v>
       </c>
       <c r="B59" s="11" t="str">
-        <f>"This is a description of the " &amp; A59 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Financial help from parents to buy home page. Source to be decided.</v>
       </c>
       <c r="C59" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D59" s="14" t="s">
@@ -2985,17 +3039,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="str">
-        <f>IF(F60&lt;&gt;"",F60,IF(E60&lt;&gt;"",E60,D60))</f>
+        <f t="shared" si="3"/>
         <v>Mortgage arrears</v>
       </c>
       <c r="B60" s="11" t="str">
-        <f>"This is a description of the " &amp; A60 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Mortgage arrears page. Source to be decided.</v>
       </c>
       <c r="C60" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -3008,17 +3062,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="str">
-        <f>IF(F61&lt;&gt;"",F61,IF(E61&lt;&gt;"",E61,D61))</f>
+        <f t="shared" si="3"/>
         <v>Repossessions</v>
       </c>
       <c r="B61" s="11" t="str">
-        <f>"This is a description of the " &amp; A61 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Repossessions page. Source to be decided.</v>
       </c>
       <c r="C61" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -3031,17 +3085,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="str">
-        <f>IF(F62&lt;&gt;"",F62,IF(E62&lt;&gt;"",E62,D62))</f>
+        <f t="shared" si="3"/>
         <v>Home ownership</v>
       </c>
       <c r="B62" s="11" t="str">
-        <f>"This is a description of the " &amp; A62 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Home ownership page. Source to be decided.</v>
       </c>
       <c r="C62" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D62" s="14" t="s">
@@ -3054,17 +3108,17 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="str">
-        <f>IF(F63&lt;&gt;"",F63,IF(E63&lt;&gt;"",E63,D63))</f>
+        <f t="shared" si="3"/>
         <v>Housing Conditions &amp; Quality</v>
       </c>
       <c r="B63" s="11" t="str">
-        <f>"This is a description of the " &amp; A63 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Housing Conditions &amp; Quality page. Source to be decided.</v>
       </c>
       <c r="C63" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T2</v>
       </c>
       <c r="D63" s="14" t="s">
@@ -3075,17 +3129,17 @@
       </c>
       <c r="F63" s="19"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="str">
-        <f>IF(F64&lt;&gt;"",F64,IF(E64&lt;&gt;"",E64,D64))</f>
+        <f t="shared" si="3"/>
         <v>Non-decent; poor quality; damp; overcrowded;under occupied housing</v>
       </c>
       <c r="B64" s="11" t="str">
-        <f>"This is a description of the " &amp; A64 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Non-decent; poor quality; damp; overcrowded;under occupied housing page. Source to be decided.</v>
       </c>
       <c r="C64" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D64" s="14" t="s">
@@ -3098,17 +3152,17 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="str">
-        <f>IF(F65&lt;&gt;"",F65,IF(E65&lt;&gt;"",E65,D65))</f>
+        <f t="shared" si="3"/>
         <v>Home repairs</v>
       </c>
       <c r="B65" s="11" t="str">
-        <f>"This is a description of the " &amp; A65 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Home repairs page. Source to be decided.</v>
       </c>
       <c r="C65" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D65" s="14" t="s">
@@ -3121,17 +3175,17 @@
         <v>127</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="str">
-        <f>IF(F66&lt;&gt;"",F66,IF(E66&lt;&gt;"",E66,D66))</f>
+        <f t="shared" si="3"/>
         <v>Energy efficient homes</v>
       </c>
       <c r="B66" s="11" t="str">
-        <f>"This is a description of the " &amp; A66 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="4"/>
         <v>This is a description of the Energy efficient homes page. Source to be decided.</v>
       </c>
       <c r="C66" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D66" s="14" t="s">
@@ -3144,17 +3198,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="str">
-        <f>IF(F67&lt;&gt;"",F67,IF(E67&lt;&gt;"",E67,D67))</f>
+        <f t="shared" ref="A67:A98" si="5">IF(F67&lt;&gt;"",F67,IF(E67&lt;&gt;"",E67,D67))</f>
         <v>Household energy costs</v>
       </c>
       <c r="B67" s="11" t="str">
-        <f>"This is a description of the " &amp; A67 &amp; " page. Source to be decided."</f>
+        <f t="shared" ref="B67:B98" si="6">"This is a description of the " &amp; A67 &amp; " page. Source to be decided."</f>
         <v>This is a description of the Household energy costs page. Source to be decided.</v>
       </c>
       <c r="C67" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>T3</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -3167,17 +3221,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="str">
-        <f>IF(F68&lt;&gt;"",F68,IF(E68&lt;&gt;"",E68,D68))</f>
+        <f t="shared" si="5"/>
         <v>Smoke alarms</v>
       </c>
       <c r="B68" s="11" t="str">
-        <f>"This is a description of the " &amp; A68 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Smoke alarms page. Source to be decided.</v>
       </c>
       <c r="C68" s="11" t="str">
-        <f t="shared" ref="C68:C131" si="1">IF(F68&lt;&gt;"","T3",IF(E68&lt;&gt;"","T2","T1"))</f>
+        <f t="shared" ref="C68:C131" si="7">IF(F68&lt;&gt;"","T3",IF(E68&lt;&gt;"","T2","T1"))</f>
         <v>T3</v>
       </c>
       <c r="D68" s="14" t="s">
@@ -3190,17 +3244,17 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="str">
-        <f>IF(F69&lt;&gt;"",F69,IF(E69&lt;&gt;"",E69,D69))</f>
+        <f t="shared" si="5"/>
         <v>Fires at home</v>
       </c>
       <c r="B69" s="11" t="str">
-        <f>"This is a description of the " &amp; A69 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Fires at home page. Source to be decided.</v>
       </c>
       <c r="C69" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D69" s="14" t="s">
@@ -3213,17 +3267,16 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="str">
-        <f>IF(F70&lt;&gt;"",F70,IF(E70&lt;&gt;"",E70,D70))</f>
+        <f t="shared" si="5"/>
         <v>Social &amp; Affordable Housing</v>
       </c>
-      <c r="B70" s="11" t="str">
-        <f>"This is a description of the " &amp; A70 &amp; " page. Source to be decided."</f>
-        <v>This is a description of the Social &amp; Affordable Housing page. Source to be decided.</v>
+      <c r="B70" s="26" t="s">
+        <v>390</v>
       </c>
       <c r="C70" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D70" s="14" t="s">
@@ -3234,17 +3287,16 @@
       </c>
       <c r="F70" s="18"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="str">
-        <f>IF(F71&lt;&gt;"",F71,IF(E71&lt;&gt;"",E71,D71))</f>
+        <f t="shared" si="5"/>
         <v>Access to social housing</v>
       </c>
-      <c r="B71" s="11" t="str">
-        <f>"This is a description of the " &amp; A71 &amp; " page. Source to be decided."</f>
-        <v>This is a description of the Access to social housing page. Source to be decided.</v>
+      <c r="B71" s="26" t="s">
+        <v>391</v>
       </c>
       <c r="C71" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D71" s="14" t="s">
@@ -3257,17 +3309,17 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="str">
-        <f>IF(F72&lt;&gt;"",F72,IF(E72&lt;&gt;"",E72,D72))</f>
+        <f t="shared" si="5"/>
         <v>Length of tenure</v>
       </c>
       <c r="B72" s="11" t="str">
-        <f>"This is a description of the " &amp; A72 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Length of tenure page. Source to be decided.</v>
       </c>
       <c r="C72" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D72" s="14" t="s">
@@ -3280,17 +3332,17 @@
         <v>141</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="str">
-        <f>IF(F73&lt;&gt;"",F73,IF(E73&lt;&gt;"",E73,D73))</f>
+        <f t="shared" si="5"/>
         <v>Social housing waiting list</v>
       </c>
       <c r="B73" s="11" t="str">
-        <f>"This is a description of the " &amp; A73 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Social housing waiting list page. Source to be decided.</v>
       </c>
       <c r="C73" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -3303,17 +3355,17 @@
         <v>143</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="str">
-        <f>IF(F74&lt;&gt;"",F74,IF(E74&lt;&gt;"",E74,D74))</f>
+        <f t="shared" si="5"/>
         <v>Succession rights</v>
       </c>
       <c r="B74" s="11" t="str">
-        <f>"This is a description of the " &amp; A74 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Succession rights page. Source to be decided.</v>
       </c>
       <c r="C74" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -3326,17 +3378,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="str">
-        <f>IF(F75&lt;&gt;"",F75,IF(E75&lt;&gt;"",E75,D75))</f>
+        <f t="shared" si="5"/>
         <v>Rent &amp; rent arrears</v>
       </c>
       <c r="B75" s="11" t="str">
-        <f>"This is a description of the " &amp; A75 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Rent &amp; rent arrears page. Source to be decided.</v>
       </c>
       <c r="C75" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -3349,17 +3401,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="str">
-        <f>IF(F76&lt;&gt;"",F76,IF(E76&lt;&gt;"",E76,D76))</f>
+        <f t="shared" si="5"/>
         <v>Right to buy; Right to acquire</v>
       </c>
       <c r="B76" s="11" t="str">
-        <f>"This is a description of the " &amp; A76 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Right to buy; Right to acquire page. Source to be decided.</v>
       </c>
       <c r="C76" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D76" s="14" t="s">
@@ -3372,17 +3424,16 @@
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="str">
-        <f>IF(F77&lt;&gt;"",F77,IF(E77&lt;&gt;"",E77,D77))</f>
+        <f t="shared" si="5"/>
         <v>Social &amp; Affordable Housing</v>
       </c>
-      <c r="B77" s="11" t="str">
-        <f>"This is a description of the " &amp; A77 &amp; " page. Source to be decided."</f>
-        <v>This is a description of the Social &amp; Affordable Housing page. Source to be decided.</v>
+      <c r="B77" s="26" t="s">
+        <v>390</v>
       </c>
       <c r="C77" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D77" s="14" t="s">
@@ -3395,17 +3446,17 @@
         <v>138</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="str">
-        <f>IF(F78&lt;&gt;"",F78,IF(E78&lt;&gt;"",E78,D78))</f>
+        <f t="shared" si="5"/>
         <v>Satisfaction with home</v>
       </c>
       <c r="B78" s="11" t="str">
-        <f>"This is a description of the " &amp; A78 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Satisfaction with home page. Source to be decided.</v>
       </c>
       <c r="C78" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D78" s="14" t="s">
@@ -3418,17 +3469,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="str">
-        <f>IF(F79&lt;&gt;"",F79,IF(E79&lt;&gt;"",E79,D79))</f>
+        <f t="shared" si="5"/>
         <v>Evictions</v>
       </c>
       <c r="B79" s="11" t="str">
-        <f>"This is a description of the " &amp; A79 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Evictions page. Source to be decided.</v>
       </c>
       <c r="C79" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D79" s="14" t="s">
@@ -3441,17 +3492,17 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="str">
-        <f>IF(F80&lt;&gt;"",F80,IF(E80&lt;&gt;"",E80,D80))</f>
+        <f t="shared" si="5"/>
         <v>Housing Benefit</v>
       </c>
       <c r="B80" s="11" t="str">
-        <f>"This is a description of the " &amp; A80 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Housing Benefit page. Source to be decided.</v>
       </c>
       <c r="C80" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -3464,17 +3515,17 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="str">
-        <f>IF(F81&lt;&gt;"",F81,IF(E81&lt;&gt;"",E81,D81))</f>
+        <f t="shared" si="5"/>
         <v>Private renting</v>
       </c>
       <c r="B81" s="11" t="str">
-        <f>"This is a description of the " &amp; A81 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Private renting page. Source to be decided.</v>
       </c>
       <c r="C81" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D81" s="14" t="s">
@@ -3485,17 +3536,17 @@
       </c>
       <c r="F81" s="19"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="str">
-        <f>IF(F82&lt;&gt;"",F82,IF(E82&lt;&gt;"",E82,D82))</f>
+        <f t="shared" si="5"/>
         <v>Access to private rented sector</v>
       </c>
       <c r="B82" s="11" t="str">
-        <f>"This is a description of the " &amp; A82 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Access to private rented sector page. Source to be decided.</v>
       </c>
       <c r="C82" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D82" s="14" t="s">
@@ -3508,17 +3559,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="str">
-        <f>IF(F83&lt;&gt;"",F83,IF(E83&lt;&gt;"",E83,D83))</f>
+        <f t="shared" si="5"/>
         <v>Rent &amp; rent arrears</v>
       </c>
       <c r="B83" s="11" t="str">
-        <f>"This is a description of the " &amp; A83 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Rent &amp; rent arrears page. Source to be decided.</v>
       </c>
       <c r="C83" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D83" s="14" t="s">
@@ -3531,17 +3582,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="str">
-        <f>IF(F84&lt;&gt;"",F84,IF(E84&lt;&gt;"",E84,D84))</f>
+        <f t="shared" si="5"/>
         <v>Secure tenancies</v>
       </c>
       <c r="B84" s="11" t="str">
-        <f>"This is a description of the " &amp; A84 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Secure tenancies page. Source to be decided.</v>
       </c>
       <c r="C84" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D84" s="14" t="s">
@@ -3554,17 +3605,17 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="str">
-        <f>IF(F85&lt;&gt;"",F85,IF(E85&lt;&gt;"",E85,D85))</f>
+        <f t="shared" si="5"/>
         <v>Agency fees</v>
       </c>
       <c r="B85" s="11" t="str">
-        <f>"This is a description of the " &amp; A85 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Agency fees page. Source to be decided.</v>
       </c>
       <c r="C85" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D85" s="14" t="s">
@@ -3577,17 +3628,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="str">
-        <f>IF(F86&lt;&gt;"",F86,IF(E86&lt;&gt;"",E86,D86))</f>
+        <f t="shared" si="5"/>
         <v>Protected deposit schemes</v>
       </c>
       <c r="B86" s="11" t="str">
-        <f>"This is a description of the " &amp; A86 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Protected deposit schemes page. Source to be decided.</v>
       </c>
       <c r="C86" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D86" s="14" t="s">
@@ -3600,17 +3651,17 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="str">
-        <f>IF(F87&lt;&gt;"",F87,IF(E87&lt;&gt;"",E87,D87))</f>
+        <f t="shared" si="5"/>
         <v>Satisfaction with home</v>
       </c>
       <c r="B87" s="11" t="str">
-        <f>"This is a description of the " &amp; A87 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Satisfaction with home page. Source to be decided.</v>
       </c>
       <c r="C87" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D87" s="14" t="s">
@@ -3623,17 +3674,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="str">
-        <f>IF(F88&lt;&gt;"",F88,IF(E88&lt;&gt;"",E88,D88))</f>
+        <f t="shared" si="5"/>
         <v>Evictions</v>
       </c>
       <c r="B88" s="11" t="str">
-        <f>"This is a description of the " &amp; A88 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Evictions page. Source to be decided.</v>
       </c>
       <c r="C88" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D88" s="14" t="s">
@@ -3646,17 +3697,17 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="str">
-        <f>IF(F89&lt;&gt;"",F89,IF(E89&lt;&gt;"",E89,D89))</f>
+        <f t="shared" si="5"/>
         <v>Landlords</v>
       </c>
       <c r="B89" s="11" t="str">
-        <f>"This is a description of the " &amp; A89 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Landlords page. Source to be decided.</v>
       </c>
       <c r="C89" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D89" s="14" t="s">
@@ -3669,17 +3720,17 @@
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="str">
-        <f>IF(F90&lt;&gt;"",F90,IF(E90&lt;&gt;"",E90,D90))</f>
+        <f t="shared" si="5"/>
         <v>Homelessness &amp; Rough Sleeping</v>
       </c>
       <c r="B90" s="11" t="str">
-        <f>"This is a description of the " &amp; A90 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Homelessness &amp; Rough Sleeping page. Source to be decided.</v>
       </c>
       <c r="C90" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D90" s="14" t="s">
@@ -3690,17 +3741,17 @@
       </c>
       <c r="F90" s="19"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="str">
-        <f>IF(F91&lt;&gt;"",F91,IF(E91&lt;&gt;"",E91,D91))</f>
+        <f t="shared" si="5"/>
         <v>Homelessness &amp; Rough Sleeping</v>
       </c>
       <c r="B91" s="11" t="str">
-        <f>"This is a description of the " &amp; A91 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Homelessness &amp; Rough Sleeping page. Source to be decided.</v>
       </c>
       <c r="C91" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D91" s="14" t="s">
@@ -3713,17 +3764,17 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="str">
-        <f>IF(F92&lt;&gt;"",F92,IF(E92&lt;&gt;"",E92,D92))</f>
+        <f t="shared" si="5"/>
         <v>Poverty &amp; Deprivation</v>
       </c>
       <c r="B92" s="11" t="str">
-        <f>"This is a description of the " &amp; A92 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Poverty &amp; Deprivation page. Source to be decided.</v>
       </c>
       <c r="C92" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D92" s="14" t="s">
@@ -3734,17 +3785,17 @@
       </c>
       <c r="F92" s="18"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="str">
-        <f>IF(F93&lt;&gt;"",F93,IF(E93&lt;&gt;"",E93,D93))</f>
+        <f t="shared" si="5"/>
         <v>Savings &amp; Assets</v>
       </c>
       <c r="B93" s="11" t="str">
-        <f>"This is a description of the " &amp; A93 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Savings &amp; Assets page. Source to be decided.</v>
       </c>
       <c r="C93" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D93" s="14" t="s">
@@ -3757,17 +3808,17 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="str">
-        <f>IF(F94&lt;&gt;"",F94,IF(E94&lt;&gt;"",E94,D94))</f>
+        <f t="shared" si="5"/>
         <v>State &amp; Private pensions</v>
       </c>
       <c r="B94" s="11" t="str">
-        <f>"This is a description of the " &amp; A94 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the State &amp; Private pensions page. Source to be decided.</v>
       </c>
       <c r="C94" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D94" s="14" t="s">
@@ -3780,17 +3831,17 @@
         <v>182</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="str">
-        <f>IF(F95&lt;&gt;"",F95,IF(E95&lt;&gt;"",E95,D95))</f>
+        <f t="shared" si="5"/>
         <v>Car ownership</v>
       </c>
       <c r="B95" s="11" t="str">
-        <f>"This is a description of the " &amp; A95 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Car ownership page. Source to be decided.</v>
       </c>
       <c r="C95" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D95" s="14" t="s">
@@ -3803,17 +3854,17 @@
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="str">
-        <f>IF(F96&lt;&gt;"",F96,IF(E96&lt;&gt;"",E96,D96))</f>
+        <f t="shared" si="5"/>
         <v>Travel</v>
       </c>
       <c r="B96" s="11" t="str">
-        <f>"This is a description of the " &amp; A96 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Travel page. Source to be decided.</v>
       </c>
       <c r="C96" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D96" s="14" t="s">
@@ -3826,17 +3877,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="str">
-        <f>IF(F97&lt;&gt;"",F97,IF(E97&lt;&gt;"",E97,D97))</f>
+        <f t="shared" si="5"/>
         <v>Internet</v>
       </c>
       <c r="B97" s="11" t="str">
-        <f>"This is a description of the " &amp; A97 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Internet page. Source to be decided.</v>
       </c>
       <c r="C97" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D97" s="14" t="s">
@@ -3849,17 +3900,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="str">
-        <f>IF(F98&lt;&gt;"",F98,IF(E98&lt;&gt;"",E98,D98))</f>
+        <f t="shared" si="5"/>
         <v>Deprivation</v>
       </c>
       <c r="B98" s="11" t="str">
-        <f>"This is a description of the " &amp; A98 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="6"/>
         <v>This is a description of the Deprivation page. Source to be decided.</v>
       </c>
       <c r="C98" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D98" s="14" t="s">
@@ -3872,17 +3923,16 @@
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="str">
-        <f>IF(F99&lt;&gt;"",F99,IF(E99&lt;&gt;"",E99,D99))</f>
+        <f t="shared" ref="A99:A130" si="8">IF(F99&lt;&gt;"",F99,IF(E99&lt;&gt;"",E99,D99))</f>
         <v>Health &amp; Social Care</v>
       </c>
-      <c r="B99" s="11" t="str">
-        <f>"This is a description of the " &amp; A99 &amp; " page. Source to be decided."</f>
-        <v>This is a description of the Health &amp; Social Care page. Source to be decided.</v>
+      <c r="B99" s="25" t="s">
+        <v>385</v>
       </c>
       <c r="C99" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T1</v>
       </c>
       <c r="D99" s="14" t="s">
@@ -3890,18 +3940,21 @@
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="18"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="str">
-        <f>IF(F100&lt;&gt;"",F100,IF(E100&lt;&gt;"",E100,D100))</f>
+        <f t="shared" si="8"/>
         <v>Physical &amp; Mental Health (morbidity)</v>
       </c>
       <c r="B100" s="11" t="str">
-        <f>"This is a description of the " &amp; A100 &amp; " page. Source to be decided."</f>
+        <f t="shared" ref="B100:B130" si="9">"This is a description of the " &amp; A100 &amp; " page. Source to be decided."</f>
         <v>This is a description of the Physical &amp; Mental Health (morbidity) page. Source to be decided.</v>
       </c>
       <c r="C100" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D100" s="14" t="s">
@@ -3912,17 +3965,17 @@
       </c>
       <c r="F100" s="18"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="str">
-        <f>IF(F101&lt;&gt;"",F101,IF(E101&lt;&gt;"",E101,D101))</f>
+        <f t="shared" si="8"/>
         <v>Cancer, cardiovascular disease, mental health</v>
       </c>
       <c r="B101" s="11" t="str">
-        <f>"This is a description of the " &amp; A101 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Cancer, cardiovascular disease, mental health page. Source to be decided.</v>
       </c>
       <c r="C101" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D101" s="14" t="s">
@@ -3935,17 +3988,17 @@
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="str">
-        <f>IF(F102&lt;&gt;"",F102,IF(E102&lt;&gt;"",E102,D102))</f>
+        <f t="shared" si="8"/>
         <v>Preventing illness</v>
       </c>
       <c r="B102" s="11" t="str">
-        <f>"This is a description of the " &amp; A102 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Preventing illness page. Source to be decided.</v>
       </c>
       <c r="C102" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D102" s="14" t="s">
@@ -3956,17 +4009,17 @@
       </c>
       <c r="F102" s="18"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="str">
-        <f>IF(F103&lt;&gt;"",F103,IF(E103&lt;&gt;"",E103,D103))</f>
+        <f t="shared" si="8"/>
         <v>Immunisations</v>
       </c>
       <c r="B103" s="11" t="str">
-        <f>"This is a description of the " &amp; A103 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Immunisations page. Source to be decided.</v>
       </c>
       <c r="C103" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D103" s="14" t="s">
@@ -3979,17 +4032,17 @@
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="str">
-        <f>IF(F104&lt;&gt;"",F104,IF(E104&lt;&gt;"",E104,D104))</f>
+        <f t="shared" si="8"/>
         <v>GP &amp; Dentist registrations</v>
       </c>
       <c r="B104" s="11" t="str">
-        <f>"This is a description of the " &amp; A104 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the GP &amp; Dentist registrations page. Source to be decided.</v>
       </c>
       <c r="C104" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D104" s="14" t="s">
@@ -4002,17 +4055,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="str">
-        <f>IF(F105&lt;&gt;"",F105,IF(E105&lt;&gt;"",E105,D105))</f>
+        <f t="shared" si="8"/>
         <v>Exercise &amp; Activity</v>
       </c>
       <c r="B105" s="11" t="str">
-        <f>"This is a description of the " &amp; A105 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Exercise &amp; Activity page. Source to be decided.</v>
       </c>
       <c r="C105" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D105" s="14" t="s">
@@ -4025,17 +4078,17 @@
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="str">
-        <f>IF(F106&lt;&gt;"",F106,IF(E106&lt;&gt;"",E106,D106))</f>
+        <f t="shared" si="8"/>
         <v>Obesity</v>
       </c>
       <c r="B106" s="11" t="str">
-        <f>"This is a description of the " &amp; A106 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Obesity page. Source to be decided.</v>
       </c>
       <c r="C106" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D106" s="14" t="s">
@@ -4048,17 +4101,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="str">
-        <f>IF(F107&lt;&gt;"",F107,IF(E107&lt;&gt;"",E107,D107))</f>
+        <f t="shared" si="8"/>
         <v>Smoking</v>
       </c>
       <c r="B107" s="11" t="str">
-        <f>"This is a description of the " &amp; A107 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Smoking page. Source to be decided.</v>
       </c>
       <c r="C107" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D107" s="14" t="s">
@@ -4071,17 +4124,17 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="str">
-        <f>IF(F108&lt;&gt;"",F108,IF(E108&lt;&gt;"",E108,D108))</f>
+        <f t="shared" si="8"/>
         <v>Alcohol &amp; Drugs</v>
       </c>
       <c r="B108" s="11" t="str">
-        <f>"This is a description of the " &amp; A108 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Alcohol &amp; Drugs page. Source to be decided.</v>
       </c>
       <c r="C108" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D108" s="14" t="s">
@@ -4094,17 +4147,17 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="str">
-        <f>IF(F109&lt;&gt;"",F109,IF(E109&lt;&gt;"",E109,D109))</f>
+        <f t="shared" si="8"/>
         <v>Sexual Health</v>
       </c>
       <c r="B109" s="11" t="str">
-        <f>"This is a description of the " &amp; A109 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Sexual Health page. Source to be decided.</v>
       </c>
       <c r="C109" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D109" s="14" t="s">
@@ -4117,17 +4170,17 @@
         <v>223</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="str">
-        <f>IF(F110&lt;&gt;"",F110,IF(E110&lt;&gt;"",E110,D110))</f>
+        <f t="shared" si="8"/>
         <v>Health Eating</v>
       </c>
       <c r="B110" s="11" t="str">
-        <f>"This is a description of the " &amp; A110 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Health Eating page. Source to be decided.</v>
       </c>
       <c r="C110" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D110" s="14" t="s">
@@ -4140,17 +4193,17 @@
         <v>227</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="str">
-        <f>IF(F111&lt;&gt;"",F111,IF(E111&lt;&gt;"",E111,D111))</f>
+        <f t="shared" si="8"/>
         <v>Quality of care</v>
       </c>
       <c r="B111" s="11" t="str">
-        <f>"This is a description of the " &amp; A111 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Quality of care page. Source to be decided.</v>
       </c>
       <c r="C111" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D111" s="14" t="s">
@@ -4161,17 +4214,17 @@
       </c>
       <c r="F111" s="18"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="str">
-        <f>IF(F112&lt;&gt;"",F112,IF(E112&lt;&gt;"",E112,D112))</f>
+        <f t="shared" si="8"/>
         <v>Quality of care</v>
       </c>
       <c r="B112" s="11" t="str">
-        <f>"This is a description of the " &amp; A112 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Quality of care page. Source to be decided.</v>
       </c>
       <c r="C112" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D112" s="14" t="s">
@@ -4184,17 +4237,17 @@
         <v>229</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="str">
-        <f>IF(F113&lt;&gt;"",F113,IF(E113&lt;&gt;"",E113,D113))</f>
+        <f t="shared" si="8"/>
         <v>Access to treatment</v>
       </c>
       <c r="B113" s="11" t="str">
-        <f>"This is a description of the " &amp; A113 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Access to treatment page. Source to be decided.</v>
       </c>
       <c r="C113" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D113" s="14" t="s">
@@ -4205,17 +4258,17 @@
       </c>
       <c r="F113" s="18"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="str">
-        <f>IF(F114&lt;&gt;"",F114,IF(E114&lt;&gt;"",E114,D114))</f>
+        <f t="shared" si="8"/>
         <v>Access to treatment</v>
       </c>
       <c r="B114" s="11" t="str">
-        <f>"This is a description of the " &amp; A114 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Access to treatment page. Source to be decided.</v>
       </c>
       <c r="C114" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D114" s="14" t="s">
@@ -4228,17 +4281,17 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="str">
-        <f>IF(F115&lt;&gt;"",F115,IF(E115&lt;&gt;"",E115,D115))</f>
+        <f t="shared" si="8"/>
         <v>Patient experiences</v>
       </c>
       <c r="B115" s="11" t="str">
-        <f>"This is a description of the " &amp; A115 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Patient experiences page. Source to be decided.</v>
       </c>
       <c r="C115" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D115" s="14" t="s">
@@ -4249,17 +4302,17 @@
       </c>
       <c r="F115" s="18"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="str">
-        <f>IF(F116&lt;&gt;"",F116,IF(E116&lt;&gt;"",E116,D116))</f>
+        <f t="shared" si="8"/>
         <v>Amputations</v>
       </c>
       <c r="B116" s="11" t="str">
-        <f>"This is a description of the " &amp; A116 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Amputations page. Source to be decided.</v>
       </c>
       <c r="C116" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D116" s="14" t="s">
@@ -4272,17 +4325,17 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="str">
-        <f>IF(F117&lt;&gt;"",F117,IF(E117&lt;&gt;"",E117,D117))</f>
+        <f t="shared" si="8"/>
         <v>Patient outcomes</v>
       </c>
       <c r="B117" s="11" t="str">
-        <f>"This is a description of the " &amp; A117 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Patient outcomes page. Source to be decided.</v>
       </c>
       <c r="C117" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D117" s="14" t="s">
@@ -4293,17 +4346,17 @@
       </c>
       <c r="F117" s="19"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="str">
-        <f>IF(F118&lt;&gt;"",F118,IF(E118&lt;&gt;"",E118,D118))</f>
+        <f t="shared" si="8"/>
         <v>Cause of death</v>
       </c>
       <c r="B118" s="11" t="str">
-        <f>"This is a description of the " &amp; A118 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Cause of death page. Source to be decided.</v>
       </c>
       <c r="C118" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D118" s="14" t="s">
@@ -4316,17 +4369,17 @@
         <v>238</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="str">
-        <f>IF(F119&lt;&gt;"",F119,IF(E119&lt;&gt;"",E119,D119))</f>
+        <f t="shared" si="8"/>
         <v>Infant mortality</v>
       </c>
       <c r="B119" s="11" t="str">
-        <f>"This is a description of the " &amp; A119 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Infant mortality page. Source to be decided.</v>
       </c>
       <c r="C119" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D119" s="14" t="s">
@@ -4339,17 +4392,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="str">
-        <f>IF(F120&lt;&gt;"",F120,IF(E120&lt;&gt;"",E120,D120))</f>
+        <f t="shared" si="8"/>
         <v>Child deaths</v>
       </c>
       <c r="B120" s="11" t="str">
-        <f>"This is a description of the " &amp; A120 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Child deaths page. Source to be decided.</v>
       </c>
       <c r="C120" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D120" s="14" t="s">
@@ -4362,17 +4415,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="str">
-        <f>IF(F121&lt;&gt;"",F121,IF(E121&lt;&gt;"",E121,D121))</f>
+        <f t="shared" si="8"/>
         <v>Life expectancy</v>
       </c>
       <c r="B121" s="11" t="str">
-        <f>"This is a description of the " &amp; A121 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Life expectancy page. Source to be decided.</v>
       </c>
       <c r="C121" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D121" s="14" t="s">
@@ -4385,17 +4438,17 @@
         <v>244</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="str">
-        <f>IF(F122&lt;&gt;"",F122,IF(E122&lt;&gt;"",E122,D122))</f>
+        <f t="shared" si="8"/>
         <v>NHS workforce</v>
       </c>
       <c r="B122" s="11" t="str">
-        <f>"This is a description of the " &amp; A122 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the NHS workforce page. Source to be decided.</v>
       </c>
       <c r="C122" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D122" s="14" t="s">
@@ -4406,17 +4459,17 @@
       </c>
       <c r="F122" s="18"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="str">
-        <f>IF(F123&lt;&gt;"",F123,IF(E123&lt;&gt;"",E123,D123))</f>
+        <f t="shared" si="8"/>
         <v>Workforce</v>
       </c>
       <c r="B123" s="11" t="str">
-        <f>"This is a description of the " &amp; A123 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Workforce page. Source to be decided.</v>
       </c>
       <c r="C123" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D123" s="14" t="s">
@@ -4429,17 +4482,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="str">
-        <f>IF(F124&lt;&gt;"",F124,IF(E124&lt;&gt;"",E124,D124))</f>
+        <f t="shared" si="8"/>
         <v>Security &amp; Justice</v>
       </c>
-      <c r="B124" s="11" t="str">
-        <f>"This is a description of the " &amp; A124 &amp; " page. Source to be decided."</f>
-        <v>This is a description of the Security &amp; Justice page. Source to be decided.</v>
+      <c r="B124" s="25" t="s">
+        <v>386</v>
       </c>
       <c r="C124" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T1</v>
       </c>
       <c r="D124" s="14" t="s">
@@ -4447,18 +4499,21 @@
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="19"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" s="25" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="str">
-        <f>IF(F125&lt;&gt;"",F125,IF(E125&lt;&gt;"",E125,D125))</f>
+        <f t="shared" si="8"/>
         <v>Criminal Justice System</v>
       </c>
       <c r="B125" s="11" t="str">
-        <f>"This is a description of the " &amp; A125 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Criminal Justice System page. Source to be decided.</v>
       </c>
       <c r="C125" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T2</v>
       </c>
       <c r="D125" s="14" t="s">
@@ -4469,17 +4524,17 @@
       </c>
       <c r="F125" s="19"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="str">
-        <f>IF(F126&lt;&gt;"",F126,IF(E126&lt;&gt;"",E126,D126))</f>
+        <f t="shared" si="8"/>
         <v>Convictions</v>
       </c>
       <c r="B126" s="11" t="str">
-        <f>"This is a description of the " &amp; A126 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Convictions page. Source to be decided.</v>
       </c>
       <c r="C126" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D126" s="14" t="s">
@@ -4492,17 +4547,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="str">
-        <f>IF(F127&lt;&gt;"",F127,IF(E127&lt;&gt;"",E127,D127))</f>
+        <f t="shared" si="8"/>
         <v>Legal aid</v>
       </c>
       <c r="B127" s="11" t="str">
-        <f>"This is a description of the " &amp; A127 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Legal aid page. Source to be decided.</v>
       </c>
       <c r="C127" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D127" s="14" t="s">
@@ -4515,17 +4570,17 @@
         <v>255</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="str">
-        <f>IF(F128&lt;&gt;"",F128,IF(E128&lt;&gt;"",E128,D128))</f>
+        <f t="shared" si="8"/>
         <v>Custody remands</v>
       </c>
       <c r="B128" s="11" t="str">
-        <f>"This is a description of the " &amp; A128 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Custody remands page. Source to be decided.</v>
       </c>
       <c r="C128" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D128" s="14" t="s">
@@ -4538,17 +4593,17 @@
         <v>258</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="str">
-        <f>IF(F129&lt;&gt;"",F129,IF(E129&lt;&gt;"",E129,D129))</f>
+        <f t="shared" si="8"/>
         <v>Release on Temporary Licence</v>
       </c>
       <c r="B129" s="11" t="str">
-        <f>"This is a description of the " &amp; A129 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Release on Temporary Licence page. Source to be decided.</v>
       </c>
       <c r="C129" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D129" s="14" t="s">
@@ -4561,17 +4616,17 @@
         <v>260</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="str">
-        <f>IF(F130&lt;&gt;"",F130,IF(E130&lt;&gt;"",E130,D130))</f>
+        <f t="shared" si="8"/>
         <v>Releases</v>
       </c>
       <c r="B130" s="11" t="str">
-        <f>"This is a description of the " &amp; A130 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="9"/>
         <v>This is a description of the Releases page. Source to be decided.</v>
       </c>
       <c r="C130" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D130" s="14" t="s">
@@ -4584,17 +4639,17 @@
         <v>262</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="str">
-        <f>IF(F131&lt;&gt;"",F131,IF(E131&lt;&gt;"",E131,D131))</f>
+        <f t="shared" ref="A131:A162" si="10">IF(F131&lt;&gt;"",F131,IF(E131&lt;&gt;"",E131,D131))</f>
         <v>Violence in prison</v>
       </c>
       <c r="B131" s="11" t="str">
-        <f>"This is a description of the " &amp; A131 &amp; " page. Source to be decided."</f>
+        <f t="shared" ref="B131:B162" si="11">"This is a description of the " &amp; A131 &amp; " page. Source to be decided."</f>
         <v>This is a description of the Violence in prison page. Source to be decided.</v>
       </c>
       <c r="C131" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>T3</v>
       </c>
       <c r="D131" s="14" t="s">
@@ -4607,17 +4662,17 @@
         <v>264</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="str">
-        <f>IF(F132&lt;&gt;"",F132,IF(E132&lt;&gt;"",E132,D132))</f>
+        <f t="shared" si="10"/>
         <v>Deaths in custody; prison</v>
       </c>
       <c r="B132" s="11" t="str">
-        <f>"This is a description of the " &amp; A132 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Deaths in custody; prison page. Source to be decided.</v>
       </c>
       <c r="C132" s="11" t="str">
-        <f t="shared" ref="C132:C184" si="2">IF(F132&lt;&gt;"","T3",IF(E132&lt;&gt;"","T2","T1"))</f>
+        <f t="shared" ref="C132:C184" si="12">IF(F132&lt;&gt;"","T3",IF(E132&lt;&gt;"","T2","T1"))</f>
         <v>T3</v>
       </c>
       <c r="D132" s="14" t="s">
@@ -4630,17 +4685,17 @@
         <v>266</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="str">
-        <f>IF(F133&lt;&gt;"",F133,IF(E133&lt;&gt;"",E133,D133))</f>
+        <f t="shared" si="10"/>
         <v>Self-harm in custody; prison</v>
       </c>
       <c r="B133" s="11" t="str">
-        <f>"This is a description of the " &amp; A133 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Self-harm in custody; prison page. Source to be decided.</v>
       </c>
       <c r="C133" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D133" s="14" t="s">
@@ -4653,17 +4708,17 @@
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="str">
-        <f>IF(F134&lt;&gt;"",F134,IF(E134&lt;&gt;"",E134,D134))</f>
+        <f t="shared" si="10"/>
         <v>Rehabilitation in prison</v>
       </c>
       <c r="B134" s="11" t="str">
-        <f>"This is a description of the " &amp; A134 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Rehabilitation in prison page. Source to be decided.</v>
       </c>
       <c r="C134" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D134" s="14" t="s">
@@ -4676,17 +4731,17 @@
         <v>270</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="str">
-        <f>IF(F135&lt;&gt;"",F135,IF(E135&lt;&gt;"",E135,D135))</f>
+        <f t="shared" si="10"/>
         <v>Reoffending</v>
       </c>
       <c r="B135" s="11" t="str">
-        <f>"This is a description of the " &amp; A135 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Reoffending page. Source to be decided.</v>
       </c>
       <c r="C135" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D135" s="14" t="s">
@@ -4699,17 +4754,17 @@
         <v>272</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="str">
-        <f>IF(F136&lt;&gt;"",F136,IF(E136&lt;&gt;"",E136,D136))</f>
+        <f t="shared" si="10"/>
         <v>Offences</v>
       </c>
       <c r="B136" s="11" t="str">
-        <f>"This is a description of the " &amp; A136 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Offences page. Source to be decided.</v>
       </c>
       <c r="C136" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D136" s="14" t="s">
@@ -4722,17 +4777,17 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="str">
-        <f>IF(F137&lt;&gt;"",F137,IF(E137&lt;&gt;"",E137,D137))</f>
+        <f t="shared" si="10"/>
         <v>Assaults in custody</v>
       </c>
       <c r="B137" s="11" t="str">
-        <f>"This is a description of the " &amp; A137 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Assaults in custody page. Source to be decided.</v>
       </c>
       <c r="C137" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D137" s="14" t="s">
@@ -4745,17 +4800,17 @@
         <v>277</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="str">
-        <f>IF(F138&lt;&gt;"",F138,IF(E138&lt;&gt;"",E138,D138))</f>
+        <f t="shared" si="10"/>
         <v>Use of force or restraint incident</v>
       </c>
       <c r="B138" s="11" t="str">
-        <f>"This is a description of the " &amp; A138 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Use of force or restraint incident page. Source to be decided.</v>
       </c>
       <c r="C138" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D138" s="14" t="s">
@@ -4768,17 +4823,17 @@
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="str">
-        <f>IF(F139&lt;&gt;"",F139,IF(E139&lt;&gt;"",E139,D139))</f>
+        <f t="shared" si="10"/>
         <v>Prison staff</v>
       </c>
       <c r="B139" s="11" t="str">
-        <f>"This is a description of the " &amp; A139 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Prison staff page. Source to be decided.</v>
       </c>
       <c r="C139" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D139" s="14" t="s">
@@ -4791,17 +4846,17 @@
         <v>281</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="str">
-        <f>IF(F140&lt;&gt;"",F140,IF(E140&lt;&gt;"",E140,D140))</f>
+        <f t="shared" si="10"/>
         <v>Justice staff</v>
       </c>
       <c r="B140" s="11" t="str">
-        <f>"This is a description of the " &amp; A140 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Justice staff page. Source to be decided.</v>
       </c>
       <c r="C140" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D140" s="14" t="s">
@@ -4814,17 +4869,17 @@
         <v>283</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="str">
-        <f>IF(F141&lt;&gt;"",F141,IF(E141&lt;&gt;"",E141,D141))</f>
+        <f t="shared" si="10"/>
         <v>Crimes</v>
       </c>
       <c r="B141" s="11" t="str">
-        <f>"This is a description of the " &amp; A141 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Crimes page. Source to be decided.</v>
       </c>
       <c r="C141" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T2</v>
       </c>
       <c r="D141" s="14" t="s">
@@ -4835,17 +4890,17 @@
       </c>
       <c r="F141" s="18"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="str">
-        <f>IF(F142&lt;&gt;"",F142,IF(E142&lt;&gt;"",E142,D142))</f>
+        <f t="shared" si="10"/>
         <v>Victims of crime</v>
       </c>
       <c r="B142" s="11" t="str">
-        <f>"This is a description of the " &amp; A142 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Victims of crime page. Source to be decided.</v>
       </c>
       <c r="C142" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D142" s="14" t="s">
@@ -4858,17 +4913,17 @@
         <v>286</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="str">
-        <f>IF(F143&lt;&gt;"",F143,IF(E143&lt;&gt;"",E143,D143))</f>
+        <f t="shared" si="10"/>
         <v>Fear of crime</v>
       </c>
       <c r="B143" s="11" t="str">
-        <f>"This is a description of the " &amp; A143 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Fear of crime page. Source to be decided.</v>
       </c>
       <c r="C143" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D143" s="14" t="s">
@@ -4881,17 +4936,17 @@
         <v>289</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="str">
-        <f>IF(F144&lt;&gt;"",F144,IF(E144&lt;&gt;"",E144,D144))</f>
+        <f t="shared" si="10"/>
         <v>Homicide</v>
       </c>
       <c r="B144" s="11" t="str">
-        <f>"This is a description of the " &amp; A144 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Homicide page. Source to be decided.</v>
       </c>
       <c r="C144" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D144" s="14" t="s">
@@ -4904,17 +4959,17 @@
         <v>291</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="str">
-        <f>IF(F145&lt;&gt;"",F145,IF(E145&lt;&gt;"",E145,D145))</f>
+        <f t="shared" si="10"/>
         <v>Arrests</v>
       </c>
       <c r="B145" s="11" t="str">
-        <f>"This is a description of the " &amp; A145 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Arrests page. Source to be decided.</v>
       </c>
       <c r="C145" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D145" s="14" t="s">
@@ -4927,17 +4982,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="str">
-        <f>IF(F146&lt;&gt;"",F146,IF(E146&lt;&gt;"",E146,D146))</f>
+        <f t="shared" si="10"/>
         <v>Hate crime</v>
       </c>
       <c r="B146" s="11" t="str">
-        <f>"This is a description of the " &amp; A146 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Hate crime page. Source to be decided.</v>
       </c>
       <c r="C146" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D146" s="14" t="s">
@@ -4950,17 +5005,17 @@
         <v>295</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="str">
-        <f>IF(F147&lt;&gt;"",F147,IF(E147&lt;&gt;"",E147,D147))</f>
+        <f t="shared" si="10"/>
         <v>Police</v>
       </c>
       <c r="B147" s="11" t="str">
-        <f>"This is a description of the " &amp; A147 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Police page. Source to be decided.</v>
       </c>
       <c r="C147" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T2</v>
       </c>
       <c r="D147" s="14" t="s">
@@ -4971,17 +5026,17 @@
       </c>
       <c r="F147" s="18"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="str">
-        <f>IF(F148&lt;&gt;"",F148,IF(E148&lt;&gt;"",E148,D148))</f>
+        <f t="shared" si="10"/>
         <v>Confidence in police</v>
       </c>
       <c r="B148" s="11" t="str">
-        <f>"This is a description of the " &amp; A148 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Confidence in police page. Source to be decided.</v>
       </c>
       <c r="C148" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D148" s="14" t="s">
@@ -4994,17 +5049,17 @@
         <v>298</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="str">
-        <f>IF(F149&lt;&gt;"",F149,IF(E149&lt;&gt;"",E149,D149))</f>
+        <f t="shared" si="10"/>
         <v>Stop &amp; Search</v>
       </c>
       <c r="B149" s="11" t="str">
-        <f>"This is a description of the " &amp; A149 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Stop &amp; Search page. Source to be decided.</v>
       </c>
       <c r="C149" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D149" s="14" t="s">
@@ -5017,17 +5072,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="str">
-        <f>IF(F150&lt;&gt;"",F150,IF(E150&lt;&gt;"",E150,D150))</f>
+        <f t="shared" si="10"/>
         <v>Mental Health Act detentions</v>
       </c>
       <c r="B150" s="11" t="str">
-        <f>"This is a description of the " &amp; A150 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Mental Health Act detentions page. Source to be decided.</v>
       </c>
       <c r="C150" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D150" s="14" t="s">
@@ -5040,17 +5095,17 @@
         <v>302</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="str">
-        <f>IF(F151&lt;&gt;"",F151,IF(E151&lt;&gt;"",E151,D151))</f>
+        <f t="shared" si="10"/>
         <v>Tasers</v>
       </c>
       <c r="B151" s="11" t="str">
-        <f>"This is a description of the " &amp; A151 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Tasers page. Source to be decided.</v>
       </c>
       <c r="C151" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D151" s="14" t="s">
@@ -5063,17 +5118,17 @@
         <v>304</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="str">
-        <f>IF(F152&lt;&gt;"",F152,IF(E152&lt;&gt;"",E152,D152))</f>
+        <f t="shared" si="10"/>
         <v>Deaths in custody; prison</v>
       </c>
       <c r="B152" s="11" t="str">
-        <f>"This is a description of the " &amp; A152 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Deaths in custody; prison page. Source to be decided.</v>
       </c>
       <c r="C152" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D152" s="14" t="s">
@@ -5086,17 +5141,17 @@
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="str">
-        <f>IF(F153&lt;&gt;"",F153,IF(E153&lt;&gt;"",E153,D153))</f>
+        <f t="shared" si="10"/>
         <v>Use of force, restraint</v>
       </c>
       <c r="B153" s="11" t="str">
-        <f>"This is a description of the " &amp; A153 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Use of force, restraint page. Source to be decided.</v>
       </c>
       <c r="C153" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D153" s="14" t="s">
@@ -5109,17 +5164,17 @@
         <v>308</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="str">
-        <f>IF(F154&lt;&gt;"",F154,IF(E154&lt;&gt;"",E154,D154))</f>
+        <f t="shared" si="10"/>
         <v>Workforce</v>
       </c>
       <c r="B154" s="11" t="str">
-        <f>"This is a description of the " &amp; A154 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Workforce page. Source to be decided.</v>
       </c>
       <c r="C154" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D154" s="14" t="s">
@@ -5132,17 +5187,17 @@
         <v>49</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="str">
-        <f>IF(F155&lt;&gt;"",F155,IF(E155&lt;&gt;"",E155,D155))</f>
+        <f t="shared" si="10"/>
         <v>Customs</v>
       </c>
       <c r="B155" s="11" t="str">
-        <f>"This is a description of the " &amp; A155 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Customs page. Source to be decided.</v>
       </c>
       <c r="C155" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T2</v>
       </c>
       <c r="D155" s="14" t="s">
@@ -5153,17 +5208,17 @@
       </c>
       <c r="F155" s="18"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="str">
-        <f>IF(F156&lt;&gt;"",F156,IF(E156&lt;&gt;"",E156,D156))</f>
+        <f t="shared" si="10"/>
         <v>Passports</v>
       </c>
       <c r="B156" s="11" t="str">
-        <f>"This is a description of the " &amp; A156 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Passports page. Source to be decided.</v>
       </c>
       <c r="C156" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D156" s="14" t="s">
@@ -5176,17 +5231,17 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="str">
-        <f>IF(F157&lt;&gt;"",F157,IF(E157&lt;&gt;"",E157,D157))</f>
+        <f t="shared" si="10"/>
         <v>Airport security</v>
       </c>
       <c r="B157" s="11" t="str">
-        <f>"This is a description of the " &amp; A157 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Airport security page. Source to be decided.</v>
       </c>
       <c r="C157" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D157" s="14" t="s">
@@ -5199,17 +5254,17 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="str">
-        <f>IF(F158&lt;&gt;"",F158,IF(E158&lt;&gt;"",E158,D158))</f>
+        <f t="shared" si="10"/>
         <v>Defence</v>
       </c>
       <c r="B158" s="11" t="str">
-        <f>"This is a description of the " &amp; A158 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Defence page. Source to be decided.</v>
       </c>
       <c r="C158" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T2</v>
       </c>
       <c r="D158" s="14" t="s">
@@ -5220,17 +5275,17 @@
       </c>
       <c r="F158" s="18"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="str">
-        <f>IF(F159&lt;&gt;"",F159,IF(E159&lt;&gt;"",E159,D159))</f>
+        <f t="shared" si="10"/>
         <v>Workforce</v>
       </c>
       <c r="B159" s="11" t="str">
-        <f>"This is a description of the " &amp; A159 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Workforce page. Source to be decided.</v>
       </c>
       <c r="C159" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D159" s="14" t="s">
@@ -5243,17 +5298,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="str">
-        <f>IF(F160&lt;&gt;"",F160,IF(E160&lt;&gt;"",E160,D160))</f>
+        <f t="shared" si="10"/>
         <v>Participation, representation &amp; private life</v>
       </c>
-      <c r="B160" s="11" t="str">
-        <f>"This is a description of the " &amp; A160 &amp; " page. Source to be decided."</f>
-        <v>This is a description of the Participation, representation &amp; private life page. Source to be decided.</v>
+      <c r="B160" s="25" t="s">
+        <v>387</v>
       </c>
       <c r="C160" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T1</v>
       </c>
       <c r="D160" s="14" t="s">
@@ -5261,18 +5315,21 @@
       </c>
       <c r="E160" s="18"/>
       <c r="F160" s="18"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="str">
-        <f>IF(F161&lt;&gt;"",F161,IF(E161&lt;&gt;"",E161,D161))</f>
+        <f t="shared" si="10"/>
         <v>Representation</v>
       </c>
       <c r="B161" s="11" t="str">
-        <f>"This is a description of the " &amp; A161 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Representation page. Source to be decided.</v>
       </c>
       <c r="C161" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T2</v>
       </c>
       <c r="D161" s="14" t="s">
@@ -5283,17 +5340,17 @@
       </c>
       <c r="F161" s="18"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="str">
-        <f>IF(F162&lt;&gt;"",F162,IF(E162&lt;&gt;"",E162,D162))</f>
+        <f t="shared" si="10"/>
         <v>Civil service</v>
       </c>
       <c r="B162" s="11" t="str">
-        <f>"This is a description of the " &amp; A162 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="11"/>
         <v>This is a description of the Civil service page. Source to be decided.</v>
       </c>
       <c r="C162" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D162" s="14" t="s">
@@ -5306,17 +5363,17 @@
         <v>320</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="str">
-        <f>IF(F163&lt;&gt;"",F163,IF(E163&lt;&gt;"",E163,D163))</f>
+        <f t="shared" ref="A163:A184" si="13">IF(F163&lt;&gt;"",F163,IF(E163&lt;&gt;"",E163,D163))</f>
         <v>MPs, peers</v>
       </c>
       <c r="B163" s="11" t="str">
-        <f>"This is a description of the " &amp; A163 &amp; " page. Source to be decided."</f>
+        <f t="shared" ref="B163:B184" si="14">"This is a description of the " &amp; A163 &amp; " page. Source to be decided."</f>
         <v>This is a description of the MPs, peers page. Source to be decided.</v>
       </c>
       <c r="C163" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D163" s="14" t="s">
@@ -5329,17 +5386,17 @@
         <v>324</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="str">
-        <f>IF(F164&lt;&gt;"",F164,IF(E164&lt;&gt;"",E164,D164))</f>
+        <f t="shared" si="13"/>
         <v>Culture and the media</v>
       </c>
       <c r="B164" s="11" t="str">
-        <f>"This is a description of the " &amp; A164 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Culture and the media page. Source to be decided.</v>
       </c>
       <c r="C164" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T2</v>
       </c>
       <c r="D164" s="14" t="s">
@@ -5350,17 +5407,17 @@
       </c>
       <c r="F164" s="18"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="str">
-        <f>IF(F165&lt;&gt;"",F165,IF(E165&lt;&gt;"",E165,D165))</f>
+        <f t="shared" si="13"/>
         <v>Representation in the media</v>
       </c>
       <c r="B165" s="11" t="str">
-        <f>"This is a description of the " &amp; A165 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Representation in the media page. Source to be decided.</v>
       </c>
       <c r="C165" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D165" s="14" t="s">
@@ -5373,17 +5430,17 @@
         <v>327</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="str">
-        <f>IF(F166&lt;&gt;"",F166,IF(E166&lt;&gt;"",E166,D166))</f>
+        <f t="shared" si="13"/>
         <v>Culture &amp; heritage</v>
       </c>
       <c r="B166" s="11" t="str">
-        <f>"This is a description of the " &amp; A166 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Culture &amp; heritage page. Source to be decided.</v>
       </c>
       <c r="C166" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D166" s="14" t="s">
@@ -5396,17 +5453,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="str">
-        <f>IF(F167&lt;&gt;"",F167,IF(E167&lt;&gt;"",E167,D167))</f>
+        <f t="shared" si="13"/>
         <v>Communications</v>
       </c>
       <c r="B167" s="11" t="str">
-        <f>"This is a description of the " &amp; A167 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Communications page. Source to be decided.</v>
       </c>
       <c r="C167" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D167" s="14" t="s">
@@ -5419,17 +5476,17 @@
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="str">
-        <f>IF(F168&lt;&gt;"",F168,IF(E168&lt;&gt;"",E168,D168))</f>
+        <f t="shared" si="13"/>
         <v>Communities and the environment</v>
       </c>
       <c r="B168" s="11" t="str">
-        <f>"This is a description of the " &amp; A168 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Communities and the environment page. Source to be decided.</v>
       </c>
       <c r="C168" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T2</v>
       </c>
       <c r="D168" s="14" t="s">
@@ -5440,17 +5497,17 @@
       </c>
       <c r="F168" s="18"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="str">
-        <f>IF(F169&lt;&gt;"",F169,IF(E169&lt;&gt;"",E169,D169))</f>
+        <f t="shared" si="13"/>
         <v>Natural environment</v>
       </c>
       <c r="B169" s="11" t="str">
-        <f>"This is a description of the " &amp; A169 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Natural environment page. Source to be decided.</v>
       </c>
       <c r="C169" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D169" s="14" t="s">
@@ -5463,17 +5520,17 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="str">
-        <f>IF(F170&lt;&gt;"",F170,IF(E170&lt;&gt;"",E170,D170))</f>
+        <f t="shared" si="13"/>
         <v>Belonging</v>
       </c>
       <c r="B170" s="11" t="str">
-        <f>"This is a description of the " &amp; A170 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Belonging page. Source to be decided.</v>
       </c>
       <c r="C170" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D170" s="14" t="s">
@@ -5486,17 +5543,17 @@
         <v>340</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="str">
-        <f>IF(F171&lt;&gt;"",F171,IF(E171&lt;&gt;"",E171,D171))</f>
+        <f t="shared" si="13"/>
         <v>Integration</v>
       </c>
       <c r="B171" s="11" t="str">
-        <f>"This is a description of the " &amp; A171 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Integration page. Source to be decided.</v>
       </c>
       <c r="C171" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D171" s="14" t="s">
@@ -5509,17 +5566,17 @@
         <v>343</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="str">
-        <f>IF(F172&lt;&gt;"",F172,IF(E172&lt;&gt;"",E172,D172))</f>
+        <f t="shared" si="13"/>
         <v>Influencing decisions</v>
       </c>
       <c r="B172" s="11" t="str">
-        <f>"This is a description of the " &amp; A172 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Influencing decisions page. Source to be decided.</v>
       </c>
       <c r="C172" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D172" s="14" t="s">
@@ -5532,17 +5589,17 @@
         <v>345</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="str">
-        <f>IF(F173&lt;&gt;"",F173,IF(E173&lt;&gt;"",E173,D173))</f>
+        <f t="shared" si="13"/>
         <v>Life satisfaction</v>
       </c>
       <c r="B173" s="11" t="str">
-        <f>"This is a description of the " &amp; A173 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Life satisfaction page. Source to be decided.</v>
       </c>
       <c r="C173" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D173" s="14" t="s">
@@ -5555,17 +5612,17 @@
         <v>347</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="str">
-        <f>IF(F174&lt;&gt;"",F174,IF(E174&lt;&gt;"",E174,D174))</f>
+        <f t="shared" si="13"/>
         <v>Neighbourhood</v>
       </c>
       <c r="B174" s="11" t="str">
-        <f>"This is a description of the " &amp; A174 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Neighbourhood page. Source to be decided.</v>
       </c>
       <c r="C174" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D174" s="14" t="s">
@@ -5578,17 +5635,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="str">
-        <f>IF(F175&lt;&gt;"",F175,IF(E175&lt;&gt;"",E175,D175))</f>
+        <f t="shared" si="13"/>
         <v>Air quality</v>
       </c>
       <c r="B175" s="11" t="str">
-        <f>"This is a description of the " &amp; A175 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Air quality page. Source to be decided.</v>
       </c>
       <c r="C175" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D175" s="14" t="s">
@@ -5601,17 +5658,17 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="str">
-        <f>IF(F176&lt;&gt;"",F176,IF(E176&lt;&gt;"",E176,D176))</f>
+        <f t="shared" si="13"/>
         <v>Flood risk</v>
       </c>
       <c r="B176" s="11" t="str">
-        <f>"This is a description of the " &amp; A176 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Flood risk page. Source to be decided.</v>
       </c>
       <c r="C176" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D176" s="14" t="s">
@@ -5624,17 +5681,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="str">
-        <f>IF(F177&lt;&gt;"",F177,IF(E177&lt;&gt;"",E177,D177))</f>
+        <f t="shared" si="13"/>
         <v>Waste sites</v>
       </c>
       <c r="B177" s="11" t="str">
-        <f>"This is a description of the " &amp; A177 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Waste sites page. Source to be decided.</v>
       </c>
       <c r="C177" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D177" s="14" t="s">
@@ -5647,17 +5704,17 @@
         <v>356</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="str">
-        <f>IF(F178&lt;&gt;"",F178,IF(E178&lt;&gt;"",E178,D178))</f>
+        <f t="shared" si="13"/>
         <v>COCivic action</v>
       </c>
       <c r="B178" s="11" t="str">
-        <f>"This is a description of the " &amp; A178 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the COCivic action page. Source to be decided.</v>
       </c>
       <c r="C178" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T2</v>
       </c>
       <c r="D178" s="14" t="s">
@@ -5668,17 +5725,17 @@
       </c>
       <c r="F178" s="18"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="str">
-        <f>IF(F179&lt;&gt;"",F179,IF(E179&lt;&gt;"",E179,D179))</f>
+        <f t="shared" si="13"/>
         <v>Civic activism</v>
       </c>
       <c r="B179" s="11" t="str">
-        <f>"This is a description of the " &amp; A179 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Civic activism page. Source to be decided.</v>
       </c>
       <c r="C179" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D179" s="14" t="s">
@@ -5691,17 +5748,17 @@
         <v>360</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="str">
-        <f>IF(F180&lt;&gt;"",F180,IF(E180&lt;&gt;"",E180,D180))</f>
+        <f t="shared" si="13"/>
         <v>Volunteering</v>
       </c>
       <c r="B180" s="11" t="str">
-        <f>"This is a description of the " &amp; A180 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Volunteering page. Source to be decided.</v>
       </c>
       <c r="C180" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D180" s="14" t="s">
@@ -5714,17 +5771,17 @@
         <v>362</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="str">
-        <f>IF(F181&lt;&gt;"",F181,IF(E181&lt;&gt;"",E181,D181))</f>
+        <f t="shared" si="13"/>
         <v>Social Action</v>
       </c>
       <c r="B181" s="11" t="str">
-        <f>"This is a description of the " &amp; A181 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Social Action page. Source to be decided.</v>
       </c>
       <c r="C181" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D181" s="14" t="s">
@@ -5737,17 +5794,17 @@
         <v>364</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="str">
-        <f>IF(F182&lt;&gt;"",F182,IF(E182&lt;&gt;"",E182,D182))</f>
+        <f t="shared" si="13"/>
         <v>Neighbourhood action</v>
       </c>
       <c r="B182" s="11" t="str">
-        <f>"This is a description of the " &amp; A182 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Neighbourhood action page. Source to be decided.</v>
       </c>
       <c r="C182" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D182" s="14" t="s">
@@ -5760,17 +5817,17 @@
         <v>366</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="str">
-        <f>IF(F183&lt;&gt;"",F183,IF(E183&lt;&gt;"",E183,D183))</f>
+        <f t="shared" si="13"/>
         <v>Well-being</v>
       </c>
       <c r="B183" s="11" t="str">
-        <f>"This is a description of the " &amp; A183 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Well-being page. Source to be decided.</v>
       </c>
       <c r="C183" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T2</v>
       </c>
       <c r="D183" s="14" t="s">
@@ -5781,17 +5838,17 @@
       </c>
       <c r="F183" s="18"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="str">
-        <f>IF(F184&lt;&gt;"",F184,IF(E184&lt;&gt;"",E184,D184))</f>
+        <f t="shared" si="13"/>
         <v>Life satisfaction</v>
       </c>
       <c r="B184" s="11" t="str">
-        <f>"This is a description of the " &amp; A184 &amp; " page. Source to be decided."</f>
+        <f t="shared" si="14"/>
         <v>This is a description of the Life satisfaction page. Source to be decided.</v>
       </c>
       <c r="C184" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>T3</v>
       </c>
       <c r="D184" s="14" t="s">
@@ -6080,16 +6137,24 @@
       <c r="F239" s="23"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F184">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="T1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6117,7 +6182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -6134,7 +6199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
@@ -6151,7 +6216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -6168,7 +6233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
@@ -6185,7 +6250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
@@ -6202,7 +6267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
@@ -6219,7 +6284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -6236,7 +6301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -6253,7 +6318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +6335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
@@ -6287,7 +6352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
@@ -6304,7 +6369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
@@ -6321,7 +6386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
@@ -6338,7 +6403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
@@ -6355,7 +6420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
@@ -6372,7 +6437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
@@ -6389,7 +6454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -6406,7 +6471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
@@ -6423,7 +6488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
@@ -6440,7 +6505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
@@ -6457,7 +6522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
@@ -6474,7 +6539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>0</v>
       </c>
@@ -6491,7 +6556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>0</v>
       </c>
@@ -6508,7 +6573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>108</v>
       </c>
@@ -6525,7 +6590,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>108</v>
       </c>
@@ -6542,7 +6607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>108</v>
       </c>
@@ -6559,7 +6624,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>108</v>
       </c>
@@ -6576,7 +6641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>108</v>
       </c>
@@ -6593,7 +6658,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>108</v>
       </c>
@@ -6610,7 +6675,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>108</v>
       </c>
@@ -6627,7 +6692,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>108</v>
       </c>
@@ -6644,7 +6709,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>108</v>
       </c>
@@ -6661,7 +6726,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>108</v>
       </c>
@@ -6678,7 +6743,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>108</v>
       </c>
@@ -6695,7 +6760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>108</v>
       </c>
@@ -6712,7 +6777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>108</v>
       </c>
@@ -6729,7 +6794,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>108</v>
       </c>
@@ -6746,7 +6811,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>108</v>
       </c>
@@ -6763,7 +6828,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>108</v>
       </c>
@@ -6780,7 +6845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>108</v>
       </c>
@@ -6797,7 +6862,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>108</v>
       </c>
@@ -6814,7 +6879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>108</v>
       </c>
@@ -6831,7 +6896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>108</v>
       </c>
@@ -6848,7 +6913,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>108</v>
       </c>
@@ -6865,7 +6930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>108</v>
       </c>
@@ -6882,7 +6947,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>108</v>
       </c>
@@ -6899,7 +6964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>108</v>
       </c>
@@ -6916,7 +6981,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>108</v>
       </c>
@@ -6933,7 +6998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>108</v>
       </c>
@@ -6950,7 +7015,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>108</v>
       </c>
@@ -6967,7 +7032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>108</v>
       </c>
@@ -6984,7 +7049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>108</v>
       </c>
@@ -7001,7 +7066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>200</v>
       </c>
@@ -7018,7 +7083,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>200</v>
       </c>
@@ -7035,7 +7100,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="27" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>200</v>
       </c>
@@ -7052,7 +7117,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>200</v>
       </c>
@@ -7069,7 +7134,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>200</v>
       </c>
@@ -7086,7 +7151,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>200</v>
       </c>
@@ -7103,7 +7168,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>200</v>
       </c>
@@ -7120,7 +7185,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>200</v>
       </c>
@@ -7137,7 +7202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>200</v>
       </c>
@@ -7154,7 +7219,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>200</v>
       </c>
@@ -7171,7 +7236,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>200</v>
       </c>
@@ -7188,7 +7253,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>200</v>
       </c>
@@ -7205,7 +7270,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>200</v>
       </c>
@@ -7222,7 +7287,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>200</v>
       </c>
@@ -7239,7 +7304,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>200</v>
       </c>
@@ -7273,7 +7338,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>200</v>
       </c>
@@ -7324,7 +7389,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>200</v>
       </c>
@@ -7341,7 +7406,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>200</v>
       </c>
@@ -7358,7 +7423,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>200</v>
       </c>
@@ -7392,7 +7457,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>200</v>
       </c>
@@ -7409,7 +7474,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>200</v>
       </c>
@@ -7426,7 +7491,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>200</v>
       </c>
@@ -7443,7 +7508,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>200</v>
       </c>
@@ -7511,7 +7576,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>200</v>
       </c>
@@ -7528,7 +7593,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>200</v>
       </c>
@@ -7545,7 +7610,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>200</v>
       </c>
@@ -7562,7 +7627,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>200</v>
       </c>
@@ -7579,7 +7644,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>200</v>
       </c>
@@ -7596,7 +7661,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>200</v>
       </c>
@@ -7613,7 +7678,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>200</v>
       </c>
@@ -7630,7 +7695,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>200</v>
       </c>
@@ -7647,7 +7712,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>200</v>
       </c>
@@ -7664,7 +7729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>200</v>
       </c>
@@ -7681,7 +7746,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>200</v>
       </c>
@@ -7698,7 +7763,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>200</v>
       </c>
@@ -7715,7 +7780,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>200</v>
       </c>
@@ -7732,7 +7797,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>200</v>
       </c>
@@ -7749,7 +7814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>200</v>
       </c>
@@ -7766,7 +7831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>200</v>
       </c>
@@ -7783,7 +7848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>200</v>
       </c>
@@ -7800,7 +7865,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>200</v>
       </c>
@@ -7817,7 +7882,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>200</v>
       </c>
@@ -7834,7 +7899,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>200</v>
       </c>
@@ -7851,7 +7916,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>200</v>
       </c>
@@ -7868,7 +7933,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>200</v>
       </c>
@@ -7885,7 +7950,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>200</v>
       </c>
@@ -7902,7 +7967,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>200</v>
       </c>
@@ -7919,7 +7984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>250</v>
       </c>
@@ -7936,7 +8001,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>250</v>
       </c>
@@ -7953,7 +8018,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>250</v>
       </c>
@@ -7970,7 +8035,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>250</v>
       </c>
@@ -7987,7 +8052,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>250</v>
       </c>
@@ -8004,7 +8069,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>250</v>
       </c>
@@ -8021,7 +8086,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>250</v>
       </c>
@@ -8038,7 +8103,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>250</v>
       </c>
@@ -8055,7 +8120,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>250</v>
       </c>
@@ -8072,7 +8137,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>250</v>
       </c>
@@ -8089,7 +8154,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>250</v>
       </c>
@@ -8106,7 +8171,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>250</v>
       </c>
@@ -8123,7 +8188,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>250</v>
       </c>
@@ -8140,7 +8205,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
         <v>250</v>
       </c>
@@ -8157,7 +8222,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>250</v>
       </c>
@@ -8174,7 +8239,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>250</v>
       </c>
@@ -8191,7 +8256,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>250</v>
       </c>
@@ -8208,7 +8273,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
         <v>250</v>
       </c>
@@ -8225,7 +8290,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>250</v>
       </c>
@@ -8242,7 +8307,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>250</v>
       </c>
@@ -8259,7 +8324,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>250</v>
       </c>
@@ -8276,7 +8341,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>250</v>
       </c>
@@ -8293,7 +8358,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>250</v>
       </c>
@@ -8310,7 +8375,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="14" t="s">
         <v>250</v>
       </c>
@@ -8327,7 +8392,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="14" t="s">
         <v>250</v>
       </c>
@@ -8344,7 +8409,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
         <v>250</v>
       </c>
@@ -8361,7 +8426,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>250</v>
       </c>
@@ -8378,7 +8443,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="15" t="s">
         <v>319</v>
       </c>
@@ -8395,7 +8460,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>319</v>
       </c>
@@ -8412,7 +8477,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="15" t="s">
         <v>319</v>
       </c>
@@ -8429,7 +8494,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="15" t="s">
         <v>319</v>
       </c>
@@ -8446,7 +8511,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="15" t="s">
         <v>319</v>
       </c>
@@ -8463,7 +8528,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="15" t="s">
         <v>319</v>
       </c>
@@ -8480,7 +8545,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="15" t="s">
         <v>319</v>
       </c>
@@ -8497,7 +8562,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>319</v>
       </c>
@@ -8514,7 +8579,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="15" t="s">
         <v>319</v>
       </c>
@@ -8531,7 +8596,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>319</v>
       </c>
@@ -8548,7 +8613,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="15" t="s">
         <v>319</v>
       </c>
@@ -8565,7 +8630,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>319</v>
       </c>
@@ -8582,7 +8647,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>319</v>
       </c>
@@ -8599,7 +8664,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="15" t="s">
         <v>319</v>
       </c>
@@ -8616,7 +8681,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>319</v>
       </c>
@@ -8633,7 +8698,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="15" t="s">
         <v>319</v>
       </c>
@@ -8650,7 +8715,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="15" t="s">
         <v>319</v>
       </c>
@@ -8667,7 +8732,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="15" t="s">
         <v>319</v>
       </c>
@@ -8684,7 +8749,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="15" t="s">
         <v>319</v>
       </c>
@@ -8701,7 +8766,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
         <v>319</v>
       </c>
@@ -8718,7 +8783,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="15" t="s">
         <v>319</v>
       </c>
@@ -8735,7 +8800,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>319</v>
       </c>
@@ -8752,7 +8817,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="15" t="s">
         <v>319</v>
       </c>
@@ -8769,7 +8834,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="15" t="s">
         <v>319</v>
       </c>
@@ -8786,7 +8851,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>319</v>
       </c>
@@ -8803,7 +8868,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="15" t="s">
         <v>319</v>
       </c>
@@ -8820,7 +8885,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15" t="s">
         <v>319</v>
       </c>
@@ -8837,7 +8902,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15" t="s">
         <v>319</v>
       </c>
@@ -8854,7 +8919,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
         <v>319</v>
       </c>
@@ -8871,7 +8936,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>319</v>
       </c>
@@ -8888,7 +8953,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>319</v>
       </c>
@@ -8905,7 +8970,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
         <v>319</v>
       </c>
@@ -8922,7 +8987,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="15" t="s">
         <v>319</v>
       </c>
@@ -8939,7 +9004,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15" t="s">
         <v>319</v>
       </c>
@@ -8956,7 +9021,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
         <v>372</v>
       </c>
@@ -8973,7 +9038,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15" t="s">
         <v>372</v>
       </c>
@@ -8990,7 +9055,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="15" t="s">
         <v>372</v>
       </c>
@@ -9007,7 +9072,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="15" t="s">
         <v>372</v>
       </c>
@@ -9024,7 +9089,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="15" t="s">
         <v>372</v>
       </c>
@@ -9041,7 +9106,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="15" t="s">
         <v>372</v>
       </c>
@@ -9058,7 +9123,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="15" t="s">
         <v>372</v>
       </c>
@@ -9075,7 +9140,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="15" t="s">
         <v>372</v>
       </c>
@@ -9092,7 +9157,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="15" t="s">
         <v>372</v>
       </c>
@@ -9109,7 +9174,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="15" t="s">
         <v>372</v>
       </c>
@@ -9126,7 +9191,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="15" t="s">
         <v>372</v>
       </c>
@@ -9143,7 +9208,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="15" t="s">
         <v>372</v>
       </c>
@@ -9160,7 +9225,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="15" t="s">
         <v>372</v>
       </c>
@@ -9177,7 +9242,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="15" t="s">
         <v>372</v>
       </c>
@@ -9194,7 +9259,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="15" t="s">
         <v>372</v>
       </c>
@@ -9211,7 +9276,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="15" t="s">
         <v>372</v>
       </c>
@@ -9228,7 +9293,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="15" t="s">
         <v>372</v>
       </c>
@@ -9245,7 +9310,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="15" t="s">
         <v>372</v>
       </c>
@@ -9262,7 +9327,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="15" t="s">
         <v>372</v>
       </c>
@@ -9279,7 +9344,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="15" t="s">
         <v>372</v>
       </c>
@@ -9296,7 +9361,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="15" t="s">
         <v>372</v>
       </c>
@@ -9313,7 +9378,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="15" t="s">
         <v>372</v>
       </c>
@@ -9347,7 +9412,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
         <v>372</v>
       </c>
@@ -9364,7 +9429,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15" t="s">
         <v>372</v>
       </c>
@@ -9381,7 +9446,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="15" t="s">
         <v>372</v>
       </c>
@@ -9398,7 +9463,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="15" t="s">
         <v>372</v>
       </c>
@@ -9415,7 +9480,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="17" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="15" t="s">
         <v>372</v>
       </c>
@@ -9433,7 +9498,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D196"/>
+  <autoFilter ref="A1:D196">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Access to social housing"/>
+        <filter val="Social &amp; Affordable Housing"/>
+        <filter val="Social Action"/>
+        <filter val="Social housing waiting list"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>